--- a/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_17_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2060874.044934422</v>
+        <v>2060107.121818438</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3648562.622721712</v>
+        <v>3648562.622721711</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>288.3349655253351</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.3275865275448</v>
       </c>
       <c r="E11" t="n">
-        <v>3.336565080997218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>308.2415401854274</v>
+        <v>216.8636071803556</v>
       </c>
       <c r="G11" t="n">
-        <v>309.6000006915978</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.8381768654981</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.49012359028572</v>
       </c>
       <c r="T11" t="n">
-        <v>117.8309988535884</v>
+        <v>117.8309988535885</v>
       </c>
       <c r="U11" t="n">
         <v>150.5223597343418</v>
@@ -1452,16 +1452,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>35.68211204218613</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>43.78959124619357</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1336659090721</v>
+        <v>25.36552731156823</v>
       </c>
       <c r="H12" t="n">
         <v>95.96820235480737</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S12" t="n">
         <v>145.5589030715301</v>
@@ -1509,10 +1509,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>148.979244624608</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>167.6910853647983</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1540,13 +1540,13 @@
         <v>49.18770982697674</v>
       </c>
       <c r="G13" t="n">
-        <v>65.20457374106</v>
+        <v>65.20457374106002</v>
       </c>
       <c r="H13" t="n">
-        <v>53.71835877551727</v>
+        <v>53.71835877551726</v>
       </c>
       <c r="I13" t="n">
-        <v>33.2389592246516</v>
+        <v>33.23895922465161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398378</v>
       </c>
       <c r="S13" t="n">
         <v>105.311099158971</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>288.3349655253351</v>
       </c>
       <c r="C14" t="n">
-        <v>276.3462824830167</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D14" t="n">
-        <v>243.7965314955692</v>
+        <v>267.3275865275448</v>
       </c>
       <c r="E14" t="n">
-        <v>289.0697240974502</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G14" t="n">
-        <v>309.6000006915977</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.838176865498</v>
+        <v>177.2555250277977</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.49012359028572</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V14" t="n">
-        <v>231.8413427655141</v>
+        <v>231.8413427655142</v>
       </c>
       <c r="W14" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.0571097559443</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>52.09391575766373</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>43.78959124619357</v>
       </c>
       <c r="F15" t="n">
-        <v>31.57872147212042</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1336659090721</v>
+        <v>25.36552731156823</v>
       </c>
       <c r="H15" t="n">
         <v>95.96820235480737</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S15" t="n">
         <v>145.5589030715301</v>
@@ -1740,7 +1740,7 @@
         <v>185.5586142282266</v>
       </c>
       <c r="U15" t="n">
-        <v>188.0428781101807</v>
+        <v>216.2896109863653</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.95167640003204</v>
+        <v>79.95167640003211</v>
       </c>
       <c r="C16" t="n">
-        <v>66.15167124543252</v>
+        <v>66.1516712454326</v>
       </c>
       <c r="D16" t="n">
-        <v>49.77303564301091</v>
+        <v>49.77303564301099</v>
       </c>
       <c r="E16" t="n">
-        <v>48.72078549879036</v>
+        <v>48.72078549879043</v>
       </c>
       <c r="F16" t="n">
-        <v>49.18770982697667</v>
+        <v>49.18770982697674</v>
       </c>
       <c r="G16" t="n">
-        <v>65.20457374105993</v>
+        <v>65.20457374106</v>
       </c>
       <c r="H16" t="n">
-        <v>53.7183587755172</v>
+        <v>53.71835877551727</v>
       </c>
       <c r="I16" t="n">
-        <v>33.23895922465153</v>
+        <v>33.23895922465161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66505460398369</v>
+        <v>34.66505460398376</v>
       </c>
       <c r="S16" t="n">
-        <v>105.3110991589709</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T16" t="n">
-        <v>127.9773501512071</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5361345833454</v>
+        <v>182.5361345833455</v>
       </c>
       <c r="V16" t="n">
-        <v>156.3598127996576</v>
+        <v>156.3598127996577</v>
       </c>
       <c r="W16" t="n">
-        <v>181.5266988702709</v>
+        <v>181.526698870271</v>
       </c>
       <c r="X16" t="n">
-        <v>127.171800866074</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y16" t="n">
-        <v>118.0466686221417</v>
+        <v>118.0466686221418</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>223.619847341417</v>
       </c>
       <c r="H17" t="n">
-        <v>135.8580235153173</v>
+        <v>135.8580235153183</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.85084550340764</v>
+        <v>31.85084550340768</v>
       </c>
       <c r="U17" t="n">
-        <v>64.54220638416103</v>
+        <v>64.54220638416105</v>
       </c>
       <c r="V17" t="n">
         <v>145.8611894153334</v>
@@ -1923,16 +1923,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0986138677425</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>44.41340971434787</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1336659090721</v>
@@ -1941,7 +1941,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S18" t="n">
         <v>145.5589030715301</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>8.189526293298655</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.33094580879023</v>
+        <v>172.7508774589992</v>
       </c>
       <c r="T19" t="n">
-        <v>41.99719680102645</v>
+        <v>41.99719680102648</v>
       </c>
       <c r="U19" t="n">
-        <v>99.48698878707945</v>
+        <v>284.3042731808494</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>70.37965944947695</v>
       </c>
       <c r="W19" t="n">
-        <v>95.54654552009018</v>
+        <v>95.54654552009021</v>
       </c>
       <c r="X19" t="n">
-        <v>41.19164751589329</v>
+        <v>41.19164751589332</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.06651527196098</v>
+        <v>32.06651527196101</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>202.3548121751543</v>
       </c>
       <c r="C20" t="n">
-        <v>190.3661291328361</v>
+        <v>190.366129132836</v>
       </c>
       <c r="D20" t="n">
         <v>181.347433177364</v>
       </c>
       <c r="E20" t="n">
-        <v>203.0895707472696</v>
+        <v>203.0895707472695</v>
       </c>
       <c r="F20" t="n">
         <v>222.2613868352467</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6198473414171</v>
+        <v>223.619847341417</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8580235153174</v>
+        <v>135.8580235153173</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.8508455034077</v>
+        <v>31.85084550340768</v>
       </c>
       <c r="U20" t="n">
-        <v>64.54220638416109</v>
+        <v>64.54220638416105</v>
       </c>
       <c r="V20" t="n">
         <v>145.8611894153334</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S21" t="n">
         <v>145.5589030715301</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9727123385639</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.4331932014877</v>
       </c>
       <c r="S22" t="n">
-        <v>19.33094580879028</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T22" t="n">
-        <v>41.9971968010265</v>
+        <v>41.99719680102648</v>
       </c>
       <c r="U22" t="n">
-        <v>96.55598123316477</v>
+        <v>96.55598123316474</v>
       </c>
       <c r="V22" t="n">
-        <v>93.03399646829165</v>
+        <v>87.36639789819813</v>
       </c>
       <c r="W22" t="n">
-        <v>95.54654552009023</v>
+        <v>95.54654552009021</v>
       </c>
       <c r="X22" t="n">
-        <v>41.19164751589335</v>
+        <v>41.19164751589332</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.06651527196104</v>
+        <v>32.06651527196101</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>202.3548121751543</v>
       </c>
       <c r="C23" t="n">
-        <v>190.3661291328361</v>
+        <v>190.366129132836</v>
       </c>
       <c r="D23" t="n">
         <v>181.347433177364</v>
       </c>
       <c r="E23" t="n">
-        <v>203.0895707472696</v>
+        <v>203.0895707472695</v>
       </c>
       <c r="F23" t="n">
         <v>222.2613868352467</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6198473414171</v>
+        <v>223.619847341417</v>
       </c>
       <c r="H23" t="n">
         <v>135.8580235153174</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.8508455034077</v>
+        <v>31.85084550340768</v>
       </c>
       <c r="U23" t="n">
-        <v>64.54220638416109</v>
+        <v>64.54220638416105</v>
       </c>
       <c r="V23" t="n">
         <v>145.8611894153334</v>
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>157.6186883846937</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2406,13 +2406,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>87.21415908923423</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>127.1336659090721</v>
       </c>
       <c r="H24" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.5589030715301</v>
       </c>
       <c r="T24" t="n">
         <v>185.5586142282266</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>16.98673844872111</v>
       </c>
       <c r="E25" t="n">
-        <v>53.19385615589109</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S25" t="n">
-        <v>19.33094580879028</v>
+        <v>19.33094580879026</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9971968010265</v>
+        <v>229.7454887487112</v>
       </c>
       <c r="U25" t="n">
-        <v>96.55598123316477</v>
+        <v>96.55598123316474</v>
       </c>
       <c r="V25" t="n">
-        <v>70.37965944947697</v>
+        <v>70.37965944947695</v>
       </c>
       <c r="W25" t="n">
-        <v>95.54654552009023</v>
+        <v>95.54654552009021</v>
       </c>
       <c r="X25" t="n">
-        <v>41.19164751589335</v>
+        <v>41.19164751589332</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.06651527196104</v>
+        <v>32.06651527196101</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I26" t="n">
-        <v>47.16062625453684</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49012359028571</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T26" t="n">
         <v>117.8309988535884</v>
@@ -2652,7 +2652,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I27" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S27" t="n">
         <v>145.5589030715301</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.9516764000321</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543258</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D28" t="n">
-        <v>49.77303564301097</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879042</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F28" t="n">
-        <v>49.18770982697673</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374106</v>
+        <v>65.20457374105999</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551725</v>
+        <v>53.71835877551723</v>
       </c>
       <c r="I28" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465158</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398373</v>
+        <v>34.66505460398375</v>
       </c>
       <c r="S28" t="n">
         <v>105.311099158971</v>
@@ -2779,7 +2779,7 @@
         <v>127.1718008660741</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.3349655253351</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C29" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D29" t="n">
-        <v>267.3275865275448</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E29" t="n">
-        <v>289.0697240974504</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F29" t="n">
-        <v>308.2415401854275</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G29" t="n">
-        <v>309.6000006915979</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H29" t="n">
-        <v>221.8381768654982</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I29" t="n">
-        <v>47.16062625453691</v>
+        <v>47.16062625453682</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.49012359028578</v>
+        <v>70.49012359028566</v>
       </c>
       <c r="T29" t="n">
-        <v>117.8309988535885</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U29" t="n">
-        <v>150.5223597343419</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V29" t="n">
-        <v>231.8413427655142</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W29" t="n">
-        <v>257.1414422434711</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X29" t="n">
-        <v>276.4417004762178</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.8382982724165</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I30" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S30" t="n">
         <v>145.5589030715301</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.95167640003217</v>
+        <v>79.95167640003206</v>
       </c>
       <c r="C31" t="n">
-        <v>66.15167124543265</v>
+        <v>66.15167124543254</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77303564301104</v>
+        <v>49.77303564301093</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72078549879049</v>
+        <v>48.72078549879038</v>
       </c>
       <c r="F31" t="n">
-        <v>49.1877098269768</v>
+        <v>49.18770982697669</v>
       </c>
       <c r="G31" t="n">
-        <v>65.20457374106006</v>
+        <v>65.20457374105996</v>
       </c>
       <c r="H31" t="n">
-        <v>53.71835877551732</v>
+        <v>53.7183587755172</v>
       </c>
       <c r="I31" t="n">
-        <v>33.23895922465166</v>
+        <v>33.23895922465155</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66505460398382</v>
+        <v>34.66505460398372</v>
       </c>
       <c r="S31" t="n">
-        <v>105.3110991589711</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T31" t="n">
-        <v>127.9773501512073</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U31" t="n">
-        <v>182.5361345833456</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V31" t="n">
-        <v>156.3598127996578</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W31" t="n">
-        <v>181.526698870271</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X31" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.3349655253351</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C32" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D32" t="n">
-        <v>267.3275865275448</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E32" t="n">
-        <v>289.0697240974503</v>
+        <v>289.0697240974502</v>
       </c>
       <c r="F32" t="n">
-        <v>308.2415401854275</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G32" t="n">
-        <v>309.6000006915978</v>
+        <v>309.6000006915977</v>
       </c>
       <c r="H32" t="n">
-        <v>221.8381768654982</v>
+        <v>221.838176865498</v>
       </c>
       <c r="I32" t="n">
-        <v>47.16062625453689</v>
+        <v>47.16062625453678</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028576</v>
+        <v>70.49012359028562</v>
       </c>
       <c r="T32" t="n">
-        <v>117.8309988535885</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U32" t="n">
-        <v>150.5223597343419</v>
+        <v>150.5223597343417</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8413427655142</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W32" t="n">
-        <v>257.1414422434711</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X32" t="n">
-        <v>276.4417004762177</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.8382982724165</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I33" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S33" t="n">
         <v>145.5589030715301</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.95167640003216</v>
+        <v>79.95167640003201</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543264</v>
+        <v>66.1516712454325</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301103</v>
+        <v>49.77303564301089</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879048</v>
+        <v>48.72078549879033</v>
       </c>
       <c r="F34" t="n">
-        <v>49.18770982697679</v>
+        <v>49.18770982697664</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374106005</v>
+        <v>65.2045737410599</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551731</v>
+        <v>53.71835877551717</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465164</v>
+        <v>33.23895922465151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6650546039838</v>
+        <v>34.66505460398366</v>
       </c>
       <c r="S34" t="n">
-        <v>105.3110991589711</v>
+        <v>105.3110991589709</v>
       </c>
       <c r="T34" t="n">
-        <v>127.9773501512073</v>
+        <v>127.9773501512071</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V34" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W34" t="n">
-        <v>181.526698870271</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X34" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>224.0964294492206</v>
       </c>
       <c r="C35" t="n">
-        <v>212.1077464069023</v>
+        <v>212.1077464069024</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0890504514303</v>
+        <v>203.0890504514304</v>
       </c>
       <c r="E35" t="n">
-        <v>224.8311880213358</v>
+        <v>224.8311880213359</v>
       </c>
       <c r="F35" t="n">
-        <v>244.003004109313</v>
+        <v>244.0030041093131</v>
       </c>
       <c r="G35" t="n">
-        <v>245.3614646154833</v>
+        <v>245.3614646154834</v>
       </c>
       <c r="H35" t="n">
         <v>157.5996407893837</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.251587514171263</v>
+        <v>6.251587514171327</v>
       </c>
       <c r="T35" t="n">
-        <v>53.59246277747397</v>
+        <v>53.59246277747404</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822736</v>
+        <v>86.28382365822742</v>
       </c>
       <c r="V35" t="n">
-        <v>167.6028066893997</v>
+        <v>167.6028066893998</v>
       </c>
       <c r="W35" t="n">
-        <v>192.9029061673566</v>
+        <v>192.9029061673567</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2031644001032</v>
+        <v>212.2031644001033</v>
       </c>
       <c r="Y35" t="n">
         <v>223.599762196302</v>
@@ -3363,7 +3363,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I36" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S36" t="n">
         <v>145.5589030715301</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.71314032391766</v>
+        <v>20.091055171547</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318139</v>
+        <v>1.913135169318195</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9660376649455511</v>
+        <v>0.9660376649456081</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>136.4331932014877</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.07256308285655</v>
+        <v>41.07256308285662</v>
       </c>
       <c r="T37" t="n">
-        <v>97.69021039485344</v>
+        <v>63.73881407509283</v>
       </c>
       <c r="U37" t="n">
-        <v>118.297598507231</v>
+        <v>118.2975985072311</v>
       </c>
       <c r="V37" t="n">
-        <v>92.12127672354325</v>
+        <v>92.1212767235433</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2881627941565</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995962</v>
+        <v>62.93326478995968</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.80813254602731</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0964294492207</v>
+        <v>224.0964294492206</v>
       </c>
       <c r="C38" t="n">
         <v>212.1077464069024</v>
@@ -3518,7 +3518,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H38" t="n">
-        <v>157.5996407893838</v>
+        <v>157.5996407893837</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251587514171348</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T38" t="n">
         <v>53.59246277747405</v>
       </c>
       <c r="U38" t="n">
-        <v>86.28382365822745</v>
+        <v>86.28382365822742</v>
       </c>
       <c r="V38" t="n">
         <v>167.6028066893998</v>
@@ -3569,7 +3569,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5997621963021</v>
+        <v>223.599762196302</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I39" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S39" t="n">
         <v>145.5589030715301</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.71314032391774</v>
+        <v>15.71314032391771</v>
       </c>
       <c r="C40" t="n">
-        <v>1.913135169318224</v>
+        <v>1.913135169318195</v>
       </c>
       <c r="D40" t="n">
-        <v>4.37791484762923</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9660376649456364</v>
+        <v>0.9660376649456081</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.07256308285664</v>
+        <v>41.07256308285662</v>
       </c>
       <c r="T40" t="n">
-        <v>63.73881407509286</v>
+        <v>217.5619197881649</v>
       </c>
       <c r="U40" t="n">
         <v>118.2975985072311</v>
       </c>
       <c r="V40" t="n">
-        <v>92.12127672354333</v>
+        <v>92.1212767235433</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X40" t="n">
-        <v>62.93326478995971</v>
+        <v>62.93326478995968</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.80813254602739</v>
+        <v>53.80813254602737</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>224.8311880213359</v>
       </c>
       <c r="F41" t="n">
-        <v>244.0030041093131</v>
+        <v>244.003004109313</v>
       </c>
       <c r="G41" t="n">
         <v>245.3614646154834</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.251587514171378</v>
+        <v>6.251587514171355</v>
       </c>
       <c r="T41" t="n">
-        <v>53.5924627774741</v>
+        <v>53.59246277747407</v>
       </c>
       <c r="U41" t="n">
-        <v>86.28382365822748</v>
+        <v>86.28382365822745</v>
       </c>
       <c r="V41" t="n">
         <v>167.6028066893998</v>
@@ -3837,7 +3837,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I42" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S42" t="n">
         <v>145.5589030715301</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.71314032391777</v>
+        <v>15.71314032391774</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>1.913135169318224</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>4.377914847628935</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9660376649456648</v>
+        <v>0.9660376649456365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.07256308285667</v>
+        <v>41.07256308285665</v>
       </c>
       <c r="T43" t="n">
-        <v>63.73881407509289</v>
+        <v>68.11672892272198</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2975985072312</v>
+        <v>284.3042731808494</v>
       </c>
       <c r="V43" t="n">
-        <v>92.12127672354336</v>
+        <v>92.12127672354333</v>
       </c>
       <c r="W43" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X43" t="n">
-        <v>62.93326478995974</v>
+        <v>62.93326478995971</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602742</v>
+        <v>53.80813254602739</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>244.0030041093131</v>
       </c>
       <c r="G44" t="n">
-        <v>245.361464615484</v>
+        <v>245.3614646154834</v>
       </c>
       <c r="H44" t="n">
         <v>157.5996407893838</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171376</v>
+        <v>6.251587514171383</v>
       </c>
       <c r="T44" t="n">
-        <v>53.59246277747408</v>
+        <v>53.5924627774741</v>
       </c>
       <c r="U44" t="n">
         <v>86.28382365822748</v>
@@ -4074,7 +4074,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I45" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.09140601927351</v>
+        <v>40.09140601927352</v>
       </c>
       <c r="S45" t="n">
         <v>145.5589030715301</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9660376649456648</v>
+        <v>0.9660376649456649</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.07256308285667</v>
+        <v>41.07256308285668</v>
       </c>
       <c r="T46" t="n">
         <v>63.73881407509289</v>
@@ -4192,16 +4192,16 @@
         <v>118.2975985072312</v>
       </c>
       <c r="V46" t="n">
-        <v>96.49919157117232</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W46" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.80813254602742</v>
+        <v>207.6312382590989</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>896.1539947128751</v>
+        <v>533.7044097476021</v>
       </c>
       <c r="C11" t="n">
-        <v>896.1539947128751</v>
+        <v>533.7044097476021</v>
       </c>
       <c r="D11" t="n">
-        <v>896.1539947128751</v>
+        <v>263.6765445682638</v>
       </c>
       <c r="E11" t="n">
-        <v>892.7837269542922</v>
+        <v>263.6765445682638</v>
       </c>
       <c r="F11" t="n">
-        <v>581.4286358579009</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G11" t="n">
-        <v>268.7013624320445</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H11" t="n">
         <v>44.62239590123831</v>
@@ -5042,22 +5042,22 @@
         <v>164.9191384091041</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4459895919363</v>
+        <v>391.3314834412669</v>
       </c>
       <c r="L11" t="n">
-        <v>547.2157414831709</v>
+        <v>391.3314834412669</v>
       </c>
       <c r="M11" t="n">
-        <v>1040.376744592083</v>
+        <v>884.4924865501789</v>
       </c>
       <c r="N11" t="n">
-        <v>1520.246779921014</v>
+        <v>1364.36252187911</v>
       </c>
       <c r="O11" t="n">
-        <v>1921.131457448267</v>
+        <v>1765.247199406363</v>
       </c>
       <c r="P11" t="n">
-        <v>2231.119795061915</v>
+        <v>2075.235537020011</v>
       </c>
       <c r="Q11" t="n">
         <v>2231.119795061915</v>
@@ -5066,25 +5066,25 @@
         <v>2231.119795061915</v>
       </c>
       <c r="S11" t="n">
-        <v>2231.119795061915</v>
+        <v>2159.917650021222</v>
       </c>
       <c r="T11" t="n">
-        <v>2112.098584098695</v>
+        <v>2040.896439058002</v>
       </c>
       <c r="U11" t="n">
-        <v>1960.055796488248</v>
+        <v>1888.853651447556</v>
       </c>
       <c r="V11" t="n">
-        <v>1725.872621977628</v>
+        <v>1654.670476936936</v>
       </c>
       <c r="W11" t="n">
-        <v>1466.133791428667</v>
+        <v>1394.931646387975</v>
       </c>
       <c r="X11" t="n">
-        <v>1186.899750543599</v>
+        <v>1115.697605502907</v>
       </c>
       <c r="Y11" t="n">
-        <v>896.1539947128751</v>
+        <v>824.9518496721828</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>749.4458365586549</v>
+        <v>646.6497369652164</v>
       </c>
       <c r="C12" t="n">
-        <v>587.7421637996097</v>
+        <v>484.9460642061712</v>
       </c>
       <c r="D12" t="n">
-        <v>551.69962638326</v>
+        <v>346.1074271963832</v>
       </c>
       <c r="E12" t="n">
-        <v>404.6716164401312</v>
+        <v>301.8755168466928</v>
       </c>
       <c r="F12" t="n">
-        <v>269.9778183900055</v>
+        <v>167.1817187965672</v>
       </c>
       <c r="G12" t="n">
         <v>141.5599740374074</v>
@@ -5121,19 +5121,19 @@
         <v>133.6426184273641</v>
       </c>
       <c r="K12" t="n">
-        <v>133.6426184273641</v>
+        <v>334.5471397658288</v>
       </c>
       <c r="L12" t="n">
-        <v>565.5739567516713</v>
+        <v>766.4784780901359</v>
       </c>
       <c r="M12" t="n">
-        <v>1117.776106029495</v>
+        <v>1318.68062736796</v>
       </c>
       <c r="N12" t="n">
-        <v>1669.978255307319</v>
+        <v>1870.882776645784</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.620215487196</v>
+        <v>1870.882776645784</v>
       </c>
       <c r="P12" t="n">
         <v>2231.119795061915</v>
@@ -5142,28 +5142,28 @@
         <v>2231.119795061915</v>
       </c>
       <c r="R12" t="n">
-        <v>2231.119795061915</v>
+        <v>2190.623425345477</v>
       </c>
       <c r="S12" t="n">
-        <v>2084.090600040168</v>
+        <v>2043.59423032373</v>
       </c>
       <c r="T12" t="n">
-        <v>1896.657656375292</v>
+        <v>1856.161286658854</v>
       </c>
       <c r="U12" t="n">
-        <v>1678.18330184361</v>
+        <v>1637.686932127172</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.787679291944</v>
+        <v>1409.291309575506</v>
       </c>
       <c r="W12" t="n">
-        <v>1299.303593812542</v>
+        <v>1167.975440808816</v>
       </c>
       <c r="X12" t="n">
-        <v>1101.386605690337</v>
+        <v>998.5905060968986</v>
       </c>
       <c r="Y12" t="n">
-        <v>908.8652793399158</v>
+        <v>806.0691797464774</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.3144099976416</v>
+        <v>414.3144099976418</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4945400527602</v>
+        <v>347.4945400527604</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2187464739612</v>
+        <v>297.2187464739614</v>
       </c>
       <c r="E13" t="n">
-        <v>248.0058318287183</v>
+        <v>248.0058318287186</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479337</v>
+        <v>198.321276447934</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4580706488833</v>
+        <v>132.4580706488834</v>
       </c>
       <c r="H13" t="n">
-        <v>78.1971021887648</v>
+        <v>78.19710218876519</v>
       </c>
       <c r="I13" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5576652116668</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K13" t="n">
-        <v>268.5689297794102</v>
+        <v>268.5689297794107</v>
       </c>
       <c r="L13" t="n">
-        <v>507.8767290772417</v>
+        <v>507.8767290772423</v>
       </c>
       <c r="M13" t="n">
-        <v>766.6339233993394</v>
+        <v>766.6339233993396</v>
       </c>
       <c r="N13" t="n">
-        <v>1024.868528144629</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O13" t="n">
         <v>1260.162531829994</v>
@@ -5230,19 +5230,19 @@
         <v>1268.448543473927</v>
       </c>
       <c r="U13" t="n">
-        <v>1084.068609551355</v>
+        <v>1084.068609551356</v>
       </c>
       <c r="V13" t="n">
-        <v>926.1294047032163</v>
+        <v>926.1294047032166</v>
       </c>
       <c r="W13" t="n">
-        <v>742.7691028140537</v>
+        <v>742.7691028140539</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3127383028677</v>
+        <v>614.312738302868</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0736790885831</v>
+        <v>495.0736790885833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1446.452034171611</v>
+        <v>1084.188996127286</v>
       </c>
       <c r="C14" t="n">
-        <v>1167.314375097856</v>
+        <v>805.0513370535316</v>
       </c>
       <c r="D14" t="n">
-        <v>921.0552523750591</v>
+        <v>535.023471874193</v>
       </c>
       <c r="E14" t="n">
-        <v>629.0656320746045</v>
+        <v>535.023471874193</v>
       </c>
       <c r="F14" t="n">
-        <v>629.0656320746045</v>
+        <v>223.6683807778016</v>
       </c>
       <c r="G14" t="n">
-        <v>316.3383586487482</v>
+        <v>223.6683807778016</v>
       </c>
       <c r="H14" t="n">
-        <v>92.25939211794213</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I14" t="n">
         <v>44.62239590123831</v>
@@ -5282,19 +5282,19 @@
         <v>477.4459895919363</v>
       </c>
       <c r="L14" t="n">
-        <v>477.4459895919363</v>
+        <v>915.1331908979666</v>
       </c>
       <c r="M14" t="n">
-        <v>884.4924865501787</v>
+        <v>1408.294194006879</v>
       </c>
       <c r="N14" t="n">
-        <v>1364.36252187911</v>
+        <v>1520.246779921014</v>
       </c>
       <c r="O14" t="n">
-        <v>1765.247199406363</v>
+        <v>1921.131457448267</v>
       </c>
       <c r="P14" t="n">
-        <v>2075.235537020011</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="Q14" t="n">
         <v>2231.119795061915</v>
@@ -5303,25 +5303,25 @@
         <v>2231.119795061915</v>
       </c>
       <c r="S14" t="n">
-        <v>2231.119795061915</v>
+        <v>2159.917650021222</v>
       </c>
       <c r="T14" t="n">
-        <v>2231.119795061915</v>
+        <v>2040.896439058002</v>
       </c>
       <c r="U14" t="n">
-        <v>2231.119795061915</v>
+        <v>1888.853651447555</v>
       </c>
       <c r="V14" t="n">
-        <v>1996.936620551295</v>
+        <v>1654.670476936935</v>
       </c>
       <c r="W14" t="n">
-        <v>1737.197790002334</v>
+        <v>1654.670476936935</v>
       </c>
       <c r="X14" t="n">
-        <v>1737.197790002334</v>
+        <v>1375.436436051867</v>
       </c>
       <c r="Y14" t="n">
-        <v>1446.452034171611</v>
+        <v>1375.436436051867</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>749.4458365586547</v>
+        <v>618.1176835549286</v>
       </c>
       <c r="C15" t="n">
-        <v>587.7421637996094</v>
+        <v>456.4140107958833</v>
       </c>
       <c r="D15" t="n">
-        <v>448.9035267898216</v>
+        <v>403.7938938689502</v>
       </c>
       <c r="E15" t="n">
-        <v>301.8755168466928</v>
+        <v>359.5619835192598</v>
       </c>
       <c r="F15" t="n">
-        <v>269.9778183900055</v>
+        <v>224.8681854691342</v>
       </c>
       <c r="G15" t="n">
-        <v>141.5599740374074</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H15" t="n">
-        <v>44.62239590123831</v>
+        <v>102.3088625738053</v>
       </c>
       <c r="I15" t="n">
         <v>44.62239590123831</v>
@@ -5358,22 +5358,22 @@
         <v>133.6426184273641</v>
       </c>
       <c r="K15" t="n">
-        <v>133.6426184273641</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L15" t="n">
-        <v>565.5739567516713</v>
+        <v>657.4012523553301</v>
       </c>
       <c r="M15" t="n">
-        <v>1117.776106029495</v>
+        <v>1209.603401633154</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.978255307319</v>
+        <v>1209.603401633154</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.620215487196</v>
+        <v>1674.245361813031</v>
       </c>
       <c r="P15" t="n">
-        <v>2231.119795061915</v>
+        <v>2034.482380229162</v>
       </c>
       <c r="Q15" t="n">
         <v>2231.119795061915</v>
@@ -5388,19 +5388,19 @@
         <v>1856.161286658854</v>
       </c>
       <c r="U15" t="n">
-        <v>1666.21898553746</v>
+        <v>1637.686932127172</v>
       </c>
       <c r="V15" t="n">
-        <v>1437.823362985794</v>
+        <v>1409.291309575506</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.507494219104</v>
+        <v>1167.975440808816</v>
       </c>
       <c r="X15" t="n">
-        <v>998.5905060968985</v>
+        <v>970.0584526866106</v>
       </c>
       <c r="Y15" t="n">
-        <v>806.0691797464773</v>
+        <v>777.5371263361894</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.3144099976416</v>
+        <v>414.314409997642</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4945400527602</v>
+        <v>347.4945400527606</v>
       </c>
       <c r="D16" t="n">
-        <v>297.2187464739613</v>
+        <v>297.2187464739616</v>
       </c>
       <c r="E16" t="n">
-        <v>248.0058318287185</v>
+        <v>248.0058318287188</v>
       </c>
       <c r="F16" t="n">
-        <v>198.3212764479339</v>
+        <v>198.3212764479342</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4580706488835</v>
+        <v>132.4580706488836</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19710218876511</v>
+        <v>78.19710218876519</v>
       </c>
       <c r="I16" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J16" t="n">
-        <v>104.5576652116671</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K16" t="n">
-        <v>268.5689297794104</v>
+        <v>268.5689297794102</v>
       </c>
       <c r="L16" t="n">
-        <v>507.876729077242</v>
+        <v>507.8767290772427</v>
       </c>
       <c r="M16" t="n">
-        <v>766.6339233993397</v>
+        <v>766.6339233993403</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.868528144629</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O16" t="n">
-        <v>1260.162531829993</v>
+        <v>1260.162531829995</v>
       </c>
       <c r="P16" t="n">
-        <v>1454.754060196291</v>
+        <v>1454.754060196292</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.108648437726</v>
+        <v>1539.108648437727</v>
       </c>
       <c r="R16" t="n">
-        <v>1504.093441767035</v>
+        <v>1504.093441767036</v>
       </c>
       <c r="S16" t="n">
-        <v>1397.718594131711</v>
+        <v>1397.718594131712</v>
       </c>
       <c r="T16" t="n">
-        <v>1268.448543473926</v>
+        <v>1268.448543473927</v>
       </c>
       <c r="U16" t="n">
-        <v>1084.068609551355</v>
+        <v>1084.068609551356</v>
       </c>
       <c r="V16" t="n">
-        <v>926.129404703216</v>
+        <v>926.1294047032168</v>
       </c>
       <c r="W16" t="n">
-        <v>742.7691028140534</v>
+        <v>742.7691028140541</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3127383028676</v>
+        <v>614.3127383028682</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.073679088583</v>
+        <v>495.0736790885836</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1212.847033021897</v>
       </c>
       <c r="C17" t="n">
-        <v>1020.5580136958</v>
+        <v>1020.558013695799</v>
       </c>
       <c r="D17" t="n">
-        <v>837.3787882641192</v>
+        <v>837.3787882641186</v>
       </c>
       <c r="E17" t="n">
-        <v>632.2378077113217</v>
+        <v>632.2378077113211</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625876</v>
+        <v>407.7313563625871</v>
       </c>
       <c r="G17" t="n">
-        <v>181.8527226843871</v>
+        <v>181.8527226843881</v>
       </c>
       <c r="H17" t="n">
         <v>44.62239590123831</v>
@@ -5516,13 +5516,13 @@
         <v>164.9191384091041</v>
       </c>
       <c r="K17" t="n">
-        <v>391.3314834412667</v>
+        <v>477.4459895919363</v>
       </c>
       <c r="L17" t="n">
-        <v>391.3314834412667</v>
+        <v>477.4459895919363</v>
       </c>
       <c r="M17" t="n">
-        <v>884.4924865501787</v>
+        <v>970.6069927008482</v>
       </c>
       <c r="N17" t="n">
         <v>1364.36252187911</v>
@@ -5543,7 +5543,7 @@
         <v>2231.119795061915</v>
       </c>
       <c r="T17" t="n">
-        <v>2198.947223846353</v>
+        <v>2198.947223846352</v>
       </c>
       <c r="U17" t="n">
         <v>2133.753075983564</v>
@@ -5552,10 +5552,10 @@
         <v>1986.418541220601</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.528350419298</v>
+        <v>1813.528350419297</v>
       </c>
       <c r="X17" t="n">
-        <v>1621.142949281887</v>
+        <v>1621.142949281886</v>
       </c>
       <c r="Y17" t="n">
         <v>1417.24583319882</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.7624228960242</v>
+        <v>618.1176835549286</v>
       </c>
       <c r="C18" t="n">
-        <v>646.0587501369789</v>
+        <v>466.5029220723604</v>
       </c>
       <c r="D18" t="n">
-        <v>507.220113127191</v>
+        <v>327.6642850625725</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3580831126982</v>
+        <v>327.6642850625725</v>
       </c>
       <c r="F18" t="n">
         <v>327.6642850625725</v>
@@ -5592,25 +5592,25 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62239590123831</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K18" t="n">
-        <v>44.62239590123831</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L18" t="n">
-        <v>476.5537342255454</v>
+        <v>844.2303149771031</v>
       </c>
       <c r="M18" t="n">
-        <v>1028.755883503369</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.603401633154</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="O18" t="n">
-        <v>1674.245361813031</v>
+        <v>1861.074424434804</v>
       </c>
       <c r="P18" t="n">
-        <v>2034.482380229162</v>
+        <v>2221.311442850936</v>
       </c>
       <c r="Q18" t="n">
         <v>2231.119795061915</v>
@@ -5634,10 +5634,10 @@
         <v>1167.975440808816</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.703192027706</v>
+        <v>970.0584526866106</v>
       </c>
       <c r="Y18" t="n">
-        <v>967.1818656772851</v>
+        <v>777.5371263361894</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>196.6314101399195</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C19" t="n">
-        <v>196.6314101399195</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D19" t="n">
-        <v>196.6314101399195</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E19" t="n">
         <v>44.62239590123831</v>
@@ -5689,34 +5689,34 @@
         <v>696.474976461921</v>
       </c>
       <c r="P19" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="R19" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="S19" t="n">
-        <v>770.7898397290226</v>
+        <v>615.8202117995185</v>
       </c>
       <c r="T19" t="n">
-        <v>728.3684288188948</v>
+        <v>573.3988008893907</v>
       </c>
       <c r="U19" t="n">
-        <v>627.876520953158</v>
+        <v>286.2227673733812</v>
       </c>
       <c r="V19" t="n">
-        <v>367.1412165115805</v>
+        <v>215.1322022728995</v>
       </c>
       <c r="W19" t="n">
-        <v>270.6295543700753</v>
+        <v>118.6205401313942</v>
       </c>
       <c r="X19" t="n">
-        <v>229.0218296065467</v>
+        <v>77.01281536786558</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.6314101399195</v>
+        <v>44.62239590123831</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021896</v>
+        <v>1212.847033021895</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.558013695799</v>
+        <v>1020.558013695798</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641179</v>
+        <v>837.3787882641171</v>
       </c>
       <c r="E20" t="n">
-        <v>632.2378077113203</v>
+        <v>632.2378077113196</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625862</v>
+        <v>407.7313563625858</v>
       </c>
       <c r="G20" t="n">
-        <v>181.8527226843872</v>
+        <v>181.8527226843871</v>
       </c>
       <c r="H20" t="n">
         <v>44.62239590123831</v>
@@ -5750,25 +5750,25 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J20" t="n">
-        <v>164.9191384091041</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K20" t="n">
-        <v>164.9191384091041</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="L20" t="n">
-        <v>602.6063397151345</v>
+        <v>482.3095972072687</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.767342824046</v>
+        <v>975.4706003161807</v>
       </c>
       <c r="N20" t="n">
-        <v>1575.637378152978</v>
+        <v>1455.340635645112</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.247199406363</v>
+        <v>1856.225313172365</v>
       </c>
       <c r="P20" t="n">
-        <v>2075.235537020011</v>
+        <v>2166.213650786013</v>
       </c>
       <c r="Q20" t="n">
         <v>2231.119795061915</v>
@@ -5780,19 +5780,19 @@
         <v>2231.119795061915</v>
       </c>
       <c r="T20" t="n">
-        <v>2198.947223846353</v>
+        <v>2198.947223846352</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.753075983564</v>
+        <v>2133.753075983563</v>
       </c>
       <c r="V20" t="n">
         <v>1986.4185412206</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.528350419297</v>
+        <v>1813.528350419296</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281886</v>
+        <v>1621.142949281885</v>
       </c>
       <c r="Y20" t="n">
         <v>1417.245833198819</v>
@@ -5832,19 +5832,19 @@
         <v>133.6426184273641</v>
       </c>
       <c r="K21" t="n">
-        <v>133.6426184273641</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L21" t="n">
-        <v>565.5739567516713</v>
+        <v>657.4012523553301</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.776106029495</v>
+        <v>1209.603401633154</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.978255307319</v>
+        <v>1209.603401633154</v>
       </c>
       <c r="O21" t="n">
-        <v>2034.482380229162</v>
+        <v>1674.245361813031</v>
       </c>
       <c r="P21" t="n">
         <v>2034.482380229162</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>366.3535944659644</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C22" t="n">
-        <v>366.3535944659644</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D22" t="n">
-        <v>213.2817012937271</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E22" t="n">
-        <v>213.2817012937271</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="F22" t="n">
-        <v>213.2817012937271</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G22" t="n">
         <v>44.62239590123831</v>
@@ -5926,34 +5926,34 @@
         <v>696.474976461921</v>
       </c>
       <c r="P22" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="R22" t="n">
-        <v>790.3160476166895</v>
+        <v>652.5047413525604</v>
       </c>
       <c r="S22" t="n">
-        <v>770.7898397290226</v>
+        <v>443.3337941237978</v>
       </c>
       <c r="T22" t="n">
-        <v>728.3684288188948</v>
+        <v>400.9123832136701</v>
       </c>
       <c r="U22" t="n">
-        <v>630.8371346439809</v>
+        <v>303.3810890387562</v>
       </c>
       <c r="V22" t="n">
-        <v>536.8634008376257</v>
+        <v>215.1322022728995</v>
       </c>
       <c r="W22" t="n">
-        <v>440.3517386961204</v>
+        <v>118.6205401313942</v>
       </c>
       <c r="X22" t="n">
-        <v>398.7440139325917</v>
+        <v>77.01281536786558</v>
       </c>
       <c r="Y22" t="n">
-        <v>366.3535944659644</v>
+        <v>44.62239590123831</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1020.558013695799</v>
       </c>
       <c r="D23" t="n">
-        <v>837.3787882641182</v>
+        <v>837.3787882641177</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113203</v>
+        <v>632.2378077113202</v>
       </c>
       <c r="F23" t="n">
         <v>407.7313563625862</v>
@@ -5981,40 +5981,40 @@
         <v>181.8527226843872</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I23" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J23" t="n">
-        <v>44.62239590123828</v>
+        <v>164.9191384091041</v>
       </c>
       <c r="K23" t="n">
-        <v>44.62239590123828</v>
+        <v>263.632619748885</v>
       </c>
       <c r="L23" t="n">
-        <v>482.3095972072687</v>
+        <v>701.3198210549153</v>
       </c>
       <c r="M23" t="n">
-        <v>884.4924865501778</v>
+        <v>1194.480824163827</v>
       </c>
       <c r="N23" t="n">
-        <v>1364.362521879109</v>
+        <v>1674.350859492758</v>
       </c>
       <c r="O23" t="n">
-        <v>1765.247199406362</v>
+        <v>2075.235537020011</v>
       </c>
       <c r="P23" t="n">
-        <v>2075.23553702001</v>
+        <v>2075.235537020011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061914</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061914</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="S23" t="n">
-        <v>2231.119795061914</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="T23" t="n">
         <v>2198.947223846352</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>805.6432482931132</v>
+        <v>618.1176835549286</v>
       </c>
       <c r="C24" t="n">
-        <v>643.9395755340679</v>
+        <v>458.9068872067531</v>
       </c>
       <c r="D24" t="n">
-        <v>505.10093852428</v>
+        <v>320.0682501969652</v>
       </c>
       <c r="E24" t="n">
-        <v>358.0729285811512</v>
+        <v>173.0402402538364</v>
       </c>
       <c r="F24" t="n">
-        <v>269.9778183900055</v>
+        <v>173.0402402538364</v>
       </c>
       <c r="G24" t="n">
-        <v>141.5599740374074</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H24" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I24" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K24" t="n">
-        <v>323.2787541266702</v>
+        <v>301.8365179102589</v>
       </c>
       <c r="L24" t="n">
-        <v>323.2787541266702</v>
+        <v>301.8365179102589</v>
       </c>
       <c r="M24" t="n">
-        <v>875.480903404494</v>
+        <v>854.0386671880829</v>
       </c>
       <c r="N24" t="n">
-        <v>1427.683052682318</v>
+        <v>1406.240816465907</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.882776645783</v>
+        <v>1870.882776645784</v>
       </c>
       <c r="P24" t="n">
-        <v>2231.119795061914</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061914</v>
+        <v>2231.119795061915</v>
       </c>
       <c r="R24" t="n">
-        <v>2231.119795061914</v>
+        <v>2190.623425345477</v>
       </c>
       <c r="S24" t="n">
-        <v>2231.119795061914</v>
+        <v>2043.59423032373</v>
       </c>
       <c r="T24" t="n">
-        <v>2043.686851397039</v>
+        <v>1856.161286658854</v>
       </c>
       <c r="U24" t="n">
-        <v>1825.212496865357</v>
+        <v>1637.686932127172</v>
       </c>
       <c r="V24" t="n">
-        <v>1596.816874313691</v>
+        <v>1409.291309575506</v>
       </c>
       <c r="W24" t="n">
-        <v>1355.501005547001</v>
+        <v>1167.975440808816</v>
       </c>
       <c r="X24" t="n">
-        <v>1157.584017424795</v>
+        <v>970.0584526866106</v>
       </c>
       <c r="Y24" t="n">
-        <v>965.0626910743741</v>
+        <v>777.5371263361894</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251.425456907709</v>
+        <v>61.78071756661317</v>
       </c>
       <c r="C25" t="n">
-        <v>251.425456907709</v>
+        <v>61.78071756661317</v>
       </c>
       <c r="D25" t="n">
-        <v>98.35356373547171</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="F25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62239590123828</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K25" t="n">
         <v>107.8832032574527</v>
       </c>
       <c r="L25" t="n">
-        <v>246.4405453437553</v>
+        <v>246.4405453437554</v>
       </c>
       <c r="M25" t="n">
         <v>404.4472824543241</v>
@@ -6163,34 +6163,34 @@
         <v>696.474976461921</v>
       </c>
       <c r="P25" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="Q25" t="n">
-        <v>790.3160476166895</v>
+        <v>790.3160476166894</v>
       </c>
       <c r="R25" t="n">
-        <v>652.5047413525606</v>
+        <v>652.5047413525604</v>
       </c>
       <c r="S25" t="n">
-        <v>632.9785334648936</v>
+        <v>632.9785334648934</v>
       </c>
       <c r="T25" t="n">
-        <v>590.5571225547659</v>
+        <v>400.91238321367</v>
       </c>
       <c r="U25" t="n">
-        <v>493.025828379852</v>
+        <v>303.3810890387561</v>
       </c>
       <c r="V25" t="n">
-        <v>421.9352632793702</v>
+        <v>232.2905239382743</v>
       </c>
       <c r="W25" t="n">
-        <v>325.4236011378649</v>
+        <v>135.7788617967691</v>
       </c>
       <c r="X25" t="n">
-        <v>283.8158763743363</v>
+        <v>94.17113703324046</v>
       </c>
       <c r="Y25" t="n">
-        <v>251.425456907709</v>
+        <v>61.78071756661317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1807.042632173054</v>
+        <v>1807.042632173052</v>
       </c>
       <c r="C26" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D26" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E26" t="n">
-        <v>965.8874876195066</v>
+        <v>965.887487619505</v>
       </c>
       <c r="F26" t="n">
-        <v>654.5323965231153</v>
+        <v>654.5323965231137</v>
       </c>
       <c r="G26" t="n">
         <v>341.8051230972574</v>
@@ -6227,28 +6227,28 @@
         <v>291.136360069142</v>
       </c>
       <c r="K26" t="n">
-        <v>704.4136684635031</v>
+        <v>704.413668463503</v>
       </c>
       <c r="L26" t="n">
         <v>1242.851326981062</v>
       </c>
       <c r="M26" t="n">
-        <v>1836.762787301503</v>
+        <v>1807.917292389389</v>
       </c>
       <c r="N26" t="n">
-        <v>2316.632822630434</v>
+        <v>2388.537784929849</v>
       </c>
       <c r="O26" t="n">
-        <v>2818.267957369216</v>
+        <v>2890.172919668631</v>
       </c>
       <c r="P26" t="n">
-        <v>3229.006752194393</v>
+        <v>3200.161257282279</v>
       </c>
       <c r="Q26" t="n">
-        <v>3485.641467447826</v>
+        <v>3456.795972535712</v>
       </c>
       <c r="R26" t="n">
-        <v>3504.458017487367</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="S26" t="n">
         <v>3433.255872446674</v>
@@ -6257,19 +6257,19 @@
         <v>3314.234661483453</v>
       </c>
       <c r="U26" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V26" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W26" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X26" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y26" t="n">
-        <v>2098.290072097634</v>
+        <v>2098.290072097633</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J27" t="n">
-        <v>159.1093828758731</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="K27" t="n">
-        <v>159.1093828758731</v>
+        <v>348.7455185751792</v>
       </c>
       <c r="L27" t="n">
-        <v>591.0407212001803</v>
+        <v>780.6768568994864</v>
       </c>
       <c r="M27" t="n">
         <v>936.4267363588574</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461507</v>
+        <v>439.781174446151</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9613045012693</v>
+        <v>372.9613045012696</v>
       </c>
       <c r="D28" t="n">
-        <v>322.6855109224703</v>
+        <v>322.6855109224707</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772275</v>
+        <v>273.4725962772279</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964429</v>
+        <v>223.7880408964433</v>
       </c>
       <c r="G28" t="n">
-        <v>157.9248350973924</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H28" t="n">
         <v>103.6638666372742</v>
@@ -6382,16 +6382,16 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J28" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K28" t="n">
-        <v>294.0356942279195</v>
+        <v>294.0356942279194</v>
       </c>
       <c r="L28" t="n">
         <v>533.343493525751</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478488</v>
+        <v>792.1006878478487</v>
       </c>
       <c r="N28" t="n">
         <v>1050.335292593139</v>
@@ -6403,7 +6403,7 @@
         <v>1480.220824644801</v>
       </c>
       <c r="Q28" t="n">
-        <v>1564.575412886235</v>
+        <v>1564.575412886236</v>
       </c>
       <c r="R28" t="n">
         <v>1529.560206215545</v>
@@ -6418,16 +6418,16 @@
         <v>1109.535373999865</v>
       </c>
       <c r="V28" t="n">
-        <v>951.5961691517255</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625627</v>
+        <v>768.2358672625631</v>
       </c>
       <c r="X28" t="n">
-        <v>639.7795027513768</v>
+        <v>639.7795027513772</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370922</v>
+        <v>520.5404435370925</v>
       </c>
     </row>
     <row r="29">
@@ -6446,61 +6446,61 @@
         <v>1257.87710791996</v>
       </c>
       <c r="E29" t="n">
-        <v>965.8874876195057</v>
+        <v>965.887487619505</v>
       </c>
       <c r="F29" t="n">
-        <v>654.5323965231141</v>
+        <v>654.5323965231137</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8051230972575</v>
+        <v>341.8051230972573</v>
       </c>
       <c r="H29" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I29" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J29" t="n">
-        <v>291.1363600691419</v>
+        <v>291.136360069142</v>
       </c>
       <c r="K29" t="n">
-        <v>675.568173551389</v>
+        <v>622.4797612915129</v>
       </c>
       <c r="L29" t="n">
-        <v>1214.005832068948</v>
+        <v>1160.917419809072</v>
       </c>
       <c r="M29" t="n">
-        <v>1807.917292389389</v>
+        <v>1754.828880129513</v>
       </c>
       <c r="N29" t="n">
-        <v>2287.78732771832</v>
+        <v>2335.449372669973</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.422462457102</v>
+        <v>2837.084507408755</v>
       </c>
       <c r="P29" t="n">
-        <v>3200.161257282279</v>
+        <v>3247.823302233932</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.795972535712</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="R29" t="n">
-        <v>3504.458017487367</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="S29" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T29" t="n">
-        <v>3314.234661483454</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W29" t="n">
-        <v>2668.269868813426</v>
+        <v>2668.269868813425</v>
       </c>
       <c r="X29" t="n">
         <v>2389.035827928357</v>
@@ -6537,19 +6537,19 @@
         <v>127.7756270223143</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J30" t="n">
-        <v>95.59036429560302</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="K30" t="n">
-        <v>374.2467225210349</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="L30" t="n">
-        <v>374.2467225210349</v>
+        <v>502.0204986740545</v>
       </c>
       <c r="M30" t="n">
-        <v>936.4267363588574</v>
+        <v>1064.200512511877</v>
       </c>
       <c r="N30" t="n">
         <v>1526.880885351395</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461514</v>
+        <v>439.7811744461504</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012699</v>
+        <v>372.961304501269</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224709</v>
+        <v>322.6855109224701</v>
       </c>
       <c r="E31" t="n">
-        <v>273.472596277228</v>
+        <v>273.4725962772273</v>
       </c>
       <c r="F31" t="n">
-        <v>223.7880408964433</v>
+        <v>223.7880408964428</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973928</v>
+        <v>157.9248350973923</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6638666372743</v>
+        <v>103.6638666372739</v>
       </c>
       <c r="I31" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J31" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K31" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279193</v>
       </c>
       <c r="L31" t="n">
-        <v>533.3434935257507</v>
+        <v>533.3434935257509</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478482</v>
+        <v>792.1006878478486</v>
       </c>
       <c r="N31" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O31" t="n">
         <v>1285.629296278503</v>
       </c>
       <c r="P31" t="n">
-        <v>1480.2208246448</v>
+        <v>1480.220824644801</v>
       </c>
       <c r="Q31" t="n">
-        <v>1564.575412886237</v>
+        <v>1564.575412886236</v>
       </c>
       <c r="R31" t="n">
-        <v>1529.560206215546</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S31" t="n">
-        <v>1423.185358580222</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.915307922437</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.535373999865</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V31" t="n">
-        <v>951.5961691517264</v>
+        <v>951.5961691517251</v>
       </c>
       <c r="W31" t="n">
-        <v>768.2358672625637</v>
+        <v>768.2358672625626</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7795027513777</v>
+        <v>639.7795027513768</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.540443537093</v>
+        <v>520.5404435370918</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1807.042632173053</v>
+        <v>1807.042632173052</v>
       </c>
       <c r="C32" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D32" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E32" t="n">
-        <v>965.8874876195055</v>
+        <v>965.887487619505</v>
       </c>
       <c r="F32" t="n">
         <v>654.5323965231141</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8051230972577</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H32" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664511</v>
       </c>
       <c r="I32" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J32" t="n">
-        <v>291.1363600691419</v>
+        <v>291.136360069142</v>
       </c>
       <c r="K32" t="n">
-        <v>704.413668463503</v>
+        <v>704.4136684635032</v>
       </c>
       <c r="L32" t="n">
-        <v>1242.851326981062</v>
+        <v>1242.851326981063</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.917292389389</v>
+        <v>1736.012330089975</v>
       </c>
       <c r="N32" t="n">
-        <v>2388.537784929849</v>
+        <v>2316.632822630435</v>
       </c>
       <c r="O32" t="n">
-        <v>2890.172919668631</v>
+        <v>2818.267957369217</v>
       </c>
       <c r="P32" t="n">
-        <v>3200.161257282279</v>
+        <v>3229.006752194394</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.795972535712</v>
+        <v>3456.795972535711</v>
       </c>
       <c r="R32" t="n">
-        <v>3504.458017487367</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="S32" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.234661483454</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U32" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V32" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362385</v>
       </c>
       <c r="W32" t="n">
-        <v>2668.269868813426</v>
+        <v>2668.269868813425</v>
       </c>
       <c r="X32" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928356</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.290072097634</v>
+        <v>2098.290072097633</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>127.7756270223143</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J33" t="n">
-        <v>159.1093828758731</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="K33" t="n">
-        <v>437.765741101305</v>
+        <v>348.7455185751792</v>
       </c>
       <c r="L33" t="n">
-        <v>869.6970794256122</v>
+        <v>780.6768568994864</v>
       </c>
       <c r="M33" t="n">
-        <v>1431.877093263435</v>
+        <v>1342.856870737309</v>
       </c>
       <c r="N33" t="n">
-        <v>1526.880885351395</v>
+        <v>1933.311019729846</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.522845531272</v>
+        <v>2188.160260364024</v>
       </c>
       <c r="P33" t="n">
-        <v>2351.759863947403</v>
+        <v>2548.397278780156</v>
       </c>
       <c r="Q33" t="n">
         <v>2548.397278780156</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.7811744461513</v>
+        <v>439.7811744461503</v>
       </c>
       <c r="C34" t="n">
-        <v>372.9613045012699</v>
+        <v>372.961304501269</v>
       </c>
       <c r="D34" t="n">
-        <v>322.6855109224708</v>
+        <v>322.6855109224701</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772279</v>
+        <v>273.4725962772274</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7880408964433</v>
+        <v>223.7880408964429</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9248350973928</v>
+        <v>157.9248350973924</v>
       </c>
       <c r="H34" t="n">
-        <v>103.6638666372743</v>
+        <v>103.6638666372741</v>
       </c>
       <c r="I34" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J34" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K34" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279194</v>
       </c>
       <c r="L34" t="n">
-        <v>533.3434935257507</v>
+        <v>533.3434935257494</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478482</v>
+        <v>792.1006878478471</v>
       </c>
       <c r="N34" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593137</v>
       </c>
       <c r="O34" t="n">
-        <v>1285.629296278503</v>
+        <v>1285.629296278502</v>
       </c>
       <c r="P34" t="n">
-        <v>1480.220824644802</v>
+        <v>1480.220824644799</v>
       </c>
       <c r="Q34" t="n">
-        <v>1564.575412886237</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R34" t="n">
-        <v>1529.560206215546</v>
+        <v>1529.560206215544</v>
       </c>
       <c r="S34" t="n">
-        <v>1423.185358580222</v>
+        <v>1423.18535858022</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.915307922437</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.535373999865</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V34" t="n">
-        <v>951.5961691517261</v>
+        <v>951.5961691517247</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625635</v>
+        <v>768.2358672625621</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513775</v>
+        <v>639.7795027513763</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370929</v>
+        <v>520.5404435370917</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.569731241904</v>
+        <v>1350.569731241902</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.319482346043</v>
+        <v>1136.319482346041</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445981</v>
+        <v>931.1790273445966</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220365</v>
+        <v>704.0768172220352</v>
       </c>
       <c r="F35" t="n">
-        <v>457.6091363035384</v>
+        <v>457.6091363035371</v>
       </c>
       <c r="G35" t="n">
         <v>209.7692730555742</v>
       </c>
       <c r="H35" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="J35" t="n">
-        <v>170.8744592105272</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="K35" t="n">
-        <v>483.4013103933594</v>
+        <v>363.1045678854936</v>
       </c>
       <c r="L35" t="n">
-        <v>689.0975235124215</v>
+        <v>800.7917691915241</v>
       </c>
       <c r="M35" t="n">
-        <v>1182.258526621333</v>
+        <v>1293.952772300436</v>
       </c>
       <c r="N35" t="n">
-        <v>1662.128561950265</v>
+        <v>1773.822807629367</v>
       </c>
       <c r="O35" t="n">
         <v>2063.013239477517</v>
@@ -6956,16 +6956,16 @@
         <v>2373.001577091165</v>
       </c>
       <c r="Q35" t="n">
-        <v>2528.88583513307</v>
+        <v>2528.885835133069</v>
       </c>
       <c r="R35" t="n">
-        <v>2528.88583513307</v>
+        <v>2528.885835133069</v>
       </c>
       <c r="S35" t="n">
         <v>2522.57110027027</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484942</v>
       </c>
       <c r="U35" t="n">
         <v>2381.28192205239</v>
@@ -6977,10 +6977,10 @@
         <v>2017.134737348596</v>
       </c>
       <c r="X35" t="n">
-        <v>1802.788106641421</v>
+        <v>1802.78810664142</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.929760988591</v>
+        <v>1576.92976098859</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>915.8837236260832</v>
       </c>
       <c r="C36" t="n">
-        <v>754.1800508670381</v>
+        <v>754.1800508670379</v>
       </c>
       <c r="D36" t="n">
-        <v>615.3414138572502</v>
+        <v>615.34141385725</v>
       </c>
       <c r="E36" t="n">
-        <v>468.3134039141214</v>
+        <v>468.3134039141213</v>
       </c>
       <c r="F36" t="n">
-        <v>333.6196058639957</v>
+        <v>333.6196058639956</v>
       </c>
       <c r="G36" t="n">
         <v>205.2017615113975</v>
@@ -7011,7 +7011,7 @@
         <v>108.2641833752284</v>
       </c>
       <c r="I36" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="J36" t="n">
         <v>139.5979392287872</v>
@@ -7020,16 +7020,16 @@
         <v>418.2542974542191</v>
       </c>
       <c r="L36" t="n">
-        <v>850.1856357785263</v>
+        <v>714.9722972900802</v>
       </c>
       <c r="M36" t="n">
-        <v>916.9152927117711</v>
+        <v>1277.152311127903</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.369441704308</v>
+        <v>1867.60646012044</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.011401884185</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="P36" t="n">
         <v>2332.248420300317</v>
@@ -7050,7 +7050,7 @@
         <v>1935.452972198327</v>
       </c>
       <c r="V36" t="n">
-        <v>1707.057349646661</v>
+        <v>1707.05734964666</v>
       </c>
       <c r="W36" t="n">
         <v>1465.741480879971</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.48597209080653</v>
+        <v>53.48597209080664</v>
       </c>
       <c r="C37" t="n">
-        <v>51.55351232381852</v>
+        <v>51.55351232381857</v>
       </c>
       <c r="D37" t="n">
-        <v>51.55351232381852</v>
+        <v>51.55351232381857</v>
       </c>
       <c r="E37" t="n">
-        <v>51.55351232381852</v>
+        <v>51.55351232381857</v>
       </c>
       <c r="F37" t="n">
-        <v>51.55351232381852</v>
+        <v>51.55351232381857</v>
       </c>
       <c r="G37" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="H37" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="I37" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="J37" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266138</v>
       </c>
       <c r="K37" t="n">
         <v>113.8385240588758</v>
@@ -7111,34 +7111,34 @@
         <v>702.4302972633441</v>
       </c>
       <c r="P37" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="Q37" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="R37" t="n">
-        <v>658.4600621539837</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="S37" t="n">
-        <v>616.9726246965529</v>
+        <v>754.7839309606816</v>
       </c>
       <c r="T37" t="n">
-        <v>518.2956444997312</v>
+        <v>690.4012904807898</v>
       </c>
       <c r="U37" t="n">
-        <v>398.8031207550534</v>
+        <v>570.9087667361119</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7513260848077</v>
+        <v>477.8569720658662</v>
       </c>
       <c r="W37" t="n">
-        <v>187.2784343735385</v>
+        <v>359.3840803545969</v>
       </c>
       <c r="X37" t="n">
-        <v>123.7094800402459</v>
+        <v>295.8151260213043</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.35783100385467</v>
+        <v>73.77996721358139</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.569731241903</v>
+        <v>1350.569731241904</v>
       </c>
       <c r="C38" t="n">
-        <v>1136.319482346042</v>
+        <v>1136.319482346043</v>
       </c>
       <c r="D38" t="n">
-        <v>931.1790273445972</v>
+        <v>931.1790273445977</v>
       </c>
       <c r="E38" t="n">
-        <v>704.0768172220357</v>
+        <v>704.0768172220362</v>
       </c>
       <c r="F38" t="n">
-        <v>457.6091363035375</v>
+        <v>457.6091363035381</v>
       </c>
       <c r="G38" t="n">
         <v>209.7692730555743</v>
@@ -7172,22 +7172,22 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J38" t="n">
-        <v>170.8744592105272</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K38" t="n">
-        <v>483.4013103933594</v>
+        <v>363.1045678854936</v>
       </c>
       <c r="L38" t="n">
-        <v>921.0885116993898</v>
+        <v>800.7917691915241</v>
       </c>
       <c r="M38" t="n">
-        <v>1414.249514808302</v>
+        <v>1293.952772300436</v>
       </c>
       <c r="N38" t="n">
-        <v>1894.119550137233</v>
+        <v>1773.822807629367</v>
       </c>
       <c r="O38" t="n">
-        <v>2295.004227664486</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P38" t="n">
         <v>2373.001577091166</v>
@@ -7208,13 +7208,13 @@
         <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
-        <v>2211.986157719663</v>
+        <v>2211.986157719664</v>
       </c>
       <c r="W38" t="n">
-        <v>2017.134737348596</v>
+        <v>2017.134737348597</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.788106641421</v>
+        <v>1802.788106641422</v>
       </c>
       <c r="Y38" t="n">
         <v>1576.929760988591</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.8837236260828</v>
+        <v>915.8837236260837</v>
       </c>
       <c r="C39" t="n">
-        <v>754.1800508670376</v>
+        <v>754.1800508670385</v>
       </c>
       <c r="D39" t="n">
-        <v>615.3414138572498</v>
+        <v>615.3414138572507</v>
       </c>
       <c r="E39" t="n">
-        <v>468.313403914121</v>
+        <v>468.3134039141219</v>
       </c>
       <c r="F39" t="n">
-        <v>333.6196058639953</v>
+        <v>333.6196058639962</v>
       </c>
       <c r="G39" t="n">
-        <v>205.2017615113973</v>
+        <v>205.2017615113978</v>
       </c>
       <c r="H39" t="n">
         <v>108.2641833752284</v>
@@ -7257,10 +7257,10 @@
         <v>418.2542974542191</v>
       </c>
       <c r="L39" t="n">
-        <v>418.2542974542191</v>
+        <v>850.1856357785263</v>
       </c>
       <c r="M39" t="n">
-        <v>916.9152927117716</v>
+        <v>1412.365649616348</v>
       </c>
       <c r="N39" t="n">
         <v>1507.369441704309</v>
@@ -7278,25 +7278,25 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S39" t="n">
-        <v>2341.360270394884</v>
+        <v>2341.360270394885</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.927326730009</v>
+        <v>2153.92732673001</v>
       </c>
       <c r="U39" t="n">
         <v>1935.452972198327</v>
       </c>
       <c r="V39" t="n">
-        <v>1707.05734964666</v>
+        <v>1707.057349646661</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.74148087997</v>
+        <v>1465.741480879971</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.824492757765</v>
+        <v>1267.824492757766</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.303166407344</v>
+        <v>1075.303166407345</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.90810830053321</v>
+        <v>53.48597209080666</v>
       </c>
       <c r="C40" t="n">
-        <v>55.97564853354511</v>
+        <v>51.55351232381859</v>
       </c>
       <c r="D40" t="n">
-        <v>51.55351232381862</v>
+        <v>51.55351232381859</v>
       </c>
       <c r="E40" t="n">
-        <v>51.55351232381862</v>
+        <v>51.55351232381859</v>
       </c>
       <c r="F40" t="n">
-        <v>51.55351232381862</v>
+        <v>51.55351232381859</v>
       </c>
       <c r="G40" t="n">
         <v>50.57771670266141</v>
@@ -7348,34 +7348,34 @@
         <v>702.4302972633441</v>
       </c>
       <c r="P40" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="Q40" t="n">
-        <v>796.2713684181126</v>
+        <v>779.5425968947029</v>
       </c>
       <c r="R40" t="n">
-        <v>796.2713684181126</v>
+        <v>779.5425968947029</v>
       </c>
       <c r="S40" t="n">
-        <v>754.7839309606817</v>
+        <v>738.055159437272</v>
       </c>
       <c r="T40" t="n">
-        <v>690.40129048079</v>
+        <v>518.2956444997317</v>
       </c>
       <c r="U40" t="n">
-        <v>570.9087667361121</v>
+        <v>398.8031207550538</v>
       </c>
       <c r="V40" t="n">
-        <v>477.8569720658663</v>
+        <v>305.751326084808</v>
       </c>
       <c r="W40" t="n">
-        <v>191.7005705832654</v>
+        <v>187.2784343735387</v>
       </c>
       <c r="X40" t="n">
-        <v>128.1316162499728</v>
+        <v>123.7094800402461</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.77996721358144</v>
+        <v>69.35783100385486</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>931.1790273445968</v>
       </c>
       <c r="E41" t="n">
-        <v>704.0768172220352</v>
+        <v>704.0768172220353</v>
       </c>
       <c r="F41" t="n">
         <v>457.6091363035371</v>
@@ -7412,7 +7412,7 @@
         <v>170.8744592105272</v>
       </c>
       <c r="K41" t="n">
-        <v>251.4103222063915</v>
+        <v>251.4103222063916</v>
       </c>
       <c r="L41" t="n">
         <v>689.097523512422</v>
@@ -7442,7 +7442,7 @@
         <v>2468.437299484943</v>
       </c>
       <c r="U41" t="n">
-        <v>2381.281922052391</v>
+        <v>2381.28192205239</v>
       </c>
       <c r="V41" t="n">
         <v>2211.986157719663</v>
@@ -7467,16 +7467,16 @@
         <v>915.8837236260832</v>
       </c>
       <c r="C42" t="n">
-        <v>754.1800508670379</v>
+        <v>754.1800508670381</v>
       </c>
       <c r="D42" t="n">
-        <v>615.34141385725</v>
+        <v>615.3414138572502</v>
       </c>
       <c r="E42" t="n">
-        <v>468.3134039141213</v>
+        <v>468.3134039141214</v>
       </c>
       <c r="F42" t="n">
-        <v>333.6196058639956</v>
+        <v>333.6196058639957</v>
       </c>
       <c r="G42" t="n">
         <v>205.2017615113975</v>
@@ -7488,22 +7488,22 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J42" t="n">
-        <v>50.57771670266141</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="K42" t="n">
-        <v>283.0409589657729</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="L42" t="n">
-        <v>714.9722972900801</v>
+        <v>571.5292775530943</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.152311127903</v>
+        <v>1133.709291390917</v>
       </c>
       <c r="N42" t="n">
-        <v>1867.60646012044</v>
+        <v>1724.163440383454</v>
       </c>
       <c r="O42" t="n">
-        <v>2332.248420300317</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="P42" t="n">
         <v>2332.248420300317</v>
@@ -7515,7 +7515,7 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S42" t="n">
-        <v>2341.360270394884</v>
+        <v>2341.360270394885</v>
       </c>
       <c r="T42" t="n">
         <v>2153.927326730009</v>
@@ -7524,7 +7524,7 @@
         <v>1935.452972198327</v>
       </c>
       <c r="V42" t="n">
-        <v>1707.05734964666</v>
+        <v>1707.057349646661</v>
       </c>
       <c r="W42" t="n">
         <v>1465.741480879971</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.5916180718646</v>
+        <v>53.48597209080672</v>
       </c>
       <c r="C43" t="n">
-        <v>55.97564853354484</v>
+        <v>51.55351232381862</v>
       </c>
       <c r="D43" t="n">
-        <v>55.97564853354484</v>
+        <v>51.55351232381862</v>
       </c>
       <c r="E43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381862</v>
       </c>
       <c r="F43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381862</v>
       </c>
       <c r="G43" t="n">
         <v>50.57771670266141</v>
@@ -7585,34 +7585,34 @@
         <v>702.4302972633441</v>
       </c>
       <c r="P43" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="Q43" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="R43" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="S43" t="n">
-        <v>754.7839309606817</v>
+        <v>754.7839309606816</v>
       </c>
       <c r="T43" t="n">
-        <v>690.4012904807898</v>
+        <v>685.9791542710634</v>
       </c>
       <c r="U43" t="n">
-        <v>570.9087667361119</v>
+        <v>398.803120755054</v>
       </c>
       <c r="V43" t="n">
-        <v>477.8569720658661</v>
+        <v>305.7513260848082</v>
       </c>
       <c r="W43" t="n">
-        <v>359.3840803545968</v>
+        <v>187.2784343735389</v>
       </c>
       <c r="X43" t="n">
-        <v>295.8151260213041</v>
+        <v>123.7094800402462</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.4634769849128</v>
+        <v>69.35783100385494</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>704.0768172220353</v>
       </c>
       <c r="F44" t="n">
-        <v>457.6091363035375</v>
+        <v>457.6091363035371</v>
       </c>
       <c r="G44" t="n">
         <v>209.7692730555743</v>
@@ -7658,7 +7658,7 @@
         <v>1414.249514808302</v>
       </c>
       <c r="N44" t="n">
-        <v>1894.119550137233</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O44" t="n">
         <v>2063.013239477518</v>
@@ -7676,7 +7676,7 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T44" t="n">
-        <v>2468.437299484944</v>
+        <v>2468.437299484943</v>
       </c>
       <c r="U44" t="n">
         <v>2381.281922052391</v>
@@ -7731,13 +7731,13 @@
         <v>418.2542974542191</v>
       </c>
       <c r="L45" t="n">
-        <v>418.2542974542191</v>
+        <v>850.1856357785263</v>
       </c>
       <c r="M45" t="n">
-        <v>980.4343112920416</v>
+        <v>916.9152927117711</v>
       </c>
       <c r="N45" t="n">
-        <v>1570.888460284579</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O45" t="n">
         <v>1972.011401884185</v>
@@ -7822,31 +7822,31 @@
         <v>702.4302972633441</v>
       </c>
       <c r="P46" t="n">
-        <v>796.2713684181126</v>
+        <v>796.2713684181125</v>
       </c>
       <c r="Q46" t="n">
-        <v>796.2713684181126</v>
+        <v>779.5425968947029</v>
       </c>
       <c r="R46" t="n">
-        <v>796.2713684181126</v>
+        <v>779.5425968947029</v>
       </c>
       <c r="S46" t="n">
-        <v>754.7839309606817</v>
+        <v>738.0551594372719</v>
       </c>
       <c r="T46" t="n">
-        <v>690.4012904807898</v>
+        <v>673.67251895738</v>
       </c>
       <c r="U46" t="n">
-        <v>570.9087667361119</v>
+        <v>554.1799952127021</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4348358561399</v>
+        <v>461.1282005424563</v>
       </c>
       <c r="W46" t="n">
-        <v>354.9619441448706</v>
+        <v>342.655308831187</v>
       </c>
       <c r="X46" t="n">
-        <v>123.7094800402464</v>
+        <v>279.0863544978943</v>
       </c>
       <c r="Y46" t="n">
         <v>69.35783100385503</v>
@@ -8690,10 +8690,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>334.4046866953734</v>
       </c>
       <c r="L11" t="n">
-        <v>171.325791627913</v>
+        <v>100.8512947680801</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.5506413509022</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,25 +8769,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>62.33373920177449</v>
+        <v>265.2675991396176</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3379318042944</v>
+        <v>595.3379318042945</v>
       </c>
       <c r="N12" t="n">
-        <v>584.5067030964041</v>
+        <v>584.5067030964042</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>42.68570174674124</v>
       </c>
       <c r="P12" t="n">
-        <v>147.6001458567544</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.4768227103888</v>
+        <v>74.47682271038883</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8930,13 +8930,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>100.85129476808</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>497.3832438935412</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>196.9172144479071</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,25 +9006,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>62.33373920177449</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>293.3762240240192</v>
       </c>
       <c r="M15" t="n">
-        <v>595.3379318042944</v>
+        <v>595.3379318042945</v>
       </c>
       <c r="N15" t="n">
-        <v>584.5067030964041</v>
+        <v>26.72675433092529</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>147.6001458567544</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.4768227103888</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,16 +9164,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>334.4046866953731</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>100.85129476808</v>
+        <v>100.8512947680801</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>481.5666520884387</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99892924947511</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>62.33373920177449</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3379318042944</v>
+        <v>595.3379318042945</v>
       </c>
       <c r="N18" t="n">
-        <v>209.4010150680813</v>
+        <v>26.72675433092529</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>84.3842491861258</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463961</v>
       </c>
       <c r="K20" t="n">
-        <v>105.7053482790472</v>
+        <v>105.7053482790473</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9413,13 +9413,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>281.6312899103896</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>184.1124032457532</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,22 +9480,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>62.33373920177449</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>293.3762240240192</v>
       </c>
       <c r="M21" t="n">
-        <v>595.3379318042944</v>
+        <v>595.3379318042945</v>
       </c>
       <c r="N21" t="n">
-        <v>584.5067030964041</v>
+        <v>26.72675433092529</v>
       </c>
       <c r="O21" t="n">
-        <v>410.8716865162797</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>50.1258230540079</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.31373860463958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>105.7053482790472</v>
+        <v>205.4159354909472</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>492.470508928558</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>105.2187876798484</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9717,25 +9717,25 @@
         <v>73.99892924947511</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>322.1459836553307</v>
       </c>
       <c r="L24" t="n">
-        <v>45.79816775883315</v>
+        <v>45.79816775883317</v>
       </c>
       <c r="M24" t="n">
-        <v>595.3379318042942</v>
+        <v>595.3379318042945</v>
       </c>
       <c r="N24" t="n">
-        <v>584.5067030964038</v>
+        <v>584.5067030964042</v>
       </c>
       <c r="O24" t="n">
-        <v>490.3621905987263</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.4768227103888</v>
+        <v>74.47682271038883</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947511</v>
       </c>
       <c r="K27" t="n">
-        <v>62.33373920177449</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>386.4327458253582</v>
+        <v>194.8810936038369</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,19 +10188,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>99.7577211139758</v>
+        <v>73.99892924947511</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177451</v>
       </c>
       <c r="L30" t="n">
-        <v>45.79816775883315</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>494.0806662900344</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947511</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>122.6901806823999</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>300.1091771348002</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>74.47682271038883</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463961</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>308.6252474135973</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10598,7 +10598,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>382.2177652586366</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10668,10 +10668,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>345.5133191081878</v>
       </c>
       <c r="M36" t="n">
-        <v>104.9616769107802</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>50.12582305400792</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463961</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10835,10 +10835,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>382.2177652586375</v>
       </c>
       <c r="P38" t="n">
-        <v>184.0039891209394</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10905,13 +10905,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>45.79816775883315</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>541.2559580464444</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>122.6901806824004</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>187.0547048405264</v>
+        <v>187.0547048405265</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>73.99892924947511</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>297.1450950230993</v>
+        <v>62.33373920177451</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>293.0371780101069</v>
       </c>
       <c r="P42" t="n">
-        <v>50.1258230540079</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11306,10 +11306,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>334.2166702335917</v>
       </c>
       <c r="O44" t="n">
-        <v>260.7059041395812</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>45.79816775883315</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107802</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>447.8603902311925</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.3349655253351</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>276.3462824830168</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3275865275448</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>285.733159016453</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>91.37793300507181</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453685</v>
+        <v>47.16062625453688</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.334965525335</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.53105503197546</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F14" t="n">
-        <v>308.2415401854274</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.58265183770041</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.16062625453687</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028565</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117.8309988535884</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.5223597343418</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X14" t="n">
-        <v>276.4417004762176</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718490.3668865399</v>
+        <v>718490.36688654</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718490.36688654</v>
+        <v>718490.3668865399</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799618.608345432</v>
+        <v>799618.6083454321</v>
       </c>
     </row>
     <row r="8">
@@ -26314,46 +26314,46 @@
         <v>708435.8841442562</v>
       </c>
       <c r="C2" t="n">
+        <v>708435.884144256</v>
+      </c>
+      <c r="D2" t="n">
         <v>708435.8841442562</v>
       </c>
-      <c r="D2" t="n">
-        <v>708435.8841442568</v>
-      </c>
       <c r="E2" t="n">
-        <v>619090.288260784</v>
+        <v>619090.2882607841</v>
       </c>
       <c r="F2" t="n">
-        <v>619090.2882607853</v>
+        <v>619090.2882607849</v>
       </c>
       <c r="G2" t="n">
         <v>710052.255957118</v>
       </c>
       <c r="H2" t="n">
+        <v>710052.2559571182</v>
+      </c>
+      <c r="I2" t="n">
+        <v>710052.2559571184</v>
+      </c>
+      <c r="J2" t="n">
+        <v>710052.2559571189</v>
+      </c>
+      <c r="K2" t="n">
         <v>710052.2559571185</v>
       </c>
-      <c r="I2" t="n">
-        <v>710052.2559571181</v>
-      </c>
-      <c r="J2" t="n">
-        <v>710052.2559571187</v>
-      </c>
-      <c r="K2" t="n">
-        <v>710052.2559571192</v>
-      </c>
       <c r="L2" t="n">
-        <v>710052.2559571191</v>
+        <v>710052.2559571185</v>
       </c>
       <c r="M2" t="n">
-        <v>710052.2559571178</v>
+        <v>710052.2559571179</v>
       </c>
       <c r="N2" t="n">
-        <v>710052.2559571181</v>
+        <v>710052.2559571179</v>
       </c>
       <c r="O2" t="n">
-        <v>710052.2559571181</v>
+        <v>710052.255957118</v>
       </c>
       <c r="P2" t="n">
-        <v>710052.2559571182</v>
+        <v>710052.2559571177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>362828.5755808612</v>
+        <v>362828.5755808611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68784.12268014457</v>
+        <v>68784.1226801446</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492982</v>
+        <v>95920.71466492972</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>68784.12268014459</v>
+        <v>68784.12268014465</v>
       </c>
       <c r="M3" t="n">
-        <v>129612.7006801889</v>
+        <v>129612.7006801888</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.38819785853</v>
+        <v>12630.38819785852</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412191.6962645039</v>
+        <v>412190.9639965231</v>
       </c>
       <c r="C4" t="n">
-        <v>412191.6962645039</v>
+        <v>412190.9639965231</v>
       </c>
       <c r="D4" t="n">
-        <v>412191.6962645039</v>
+        <v>412190.9639965231</v>
       </c>
       <c r="E4" t="n">
-        <v>282282.6958298415</v>
+        <v>282281.1167799419</v>
       </c>
       <c r="F4" t="n">
-        <v>282282.6958298415</v>
+        <v>282281.1167799419</v>
       </c>
       <c r="G4" t="n">
-        <v>338176.9572269222</v>
+        <v>338175.3781770226</v>
       </c>
       <c r="H4" t="n">
-        <v>338176.9572269222</v>
+        <v>338175.3781770226</v>
       </c>
       <c r="I4" t="n">
-        <v>338176.9572269221</v>
+        <v>338175.3781770226</v>
       </c>
       <c r="J4" t="n">
-        <v>332354.6558764579</v>
+        <v>332352.8564742255</v>
       </c>
       <c r="K4" t="n">
-        <v>332354.6558764579</v>
+        <v>332352.8564742255</v>
       </c>
       <c r="L4" t="n">
-        <v>332354.6558764579</v>
+        <v>332352.8564742255</v>
       </c>
       <c r="M4" t="n">
-        <v>333696.6391449501</v>
+        <v>333694.9150031011</v>
       </c>
       <c r="N4" t="n">
-        <v>333696.6391449501</v>
+        <v>333694.9150031011</v>
       </c>
       <c r="O4" t="n">
-        <v>333696.6391449501</v>
+        <v>333694.9150031012</v>
       </c>
       <c r="P4" t="n">
-        <v>333696.6391449501</v>
+        <v>333694.9150031011</v>
       </c>
     </row>
     <row r="5">
@@ -26485,22 +26485,22 @@
         <v>52813.86882160399</v>
       </c>
       <c r="H5" t="n">
-        <v>52813.86882160398</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="I5" t="n">
-        <v>52813.86882160397</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="J5" t="n">
         <v>64940.3442904745</v>
       </c>
       <c r="K5" t="n">
-        <v>64940.3442904745</v>
+        <v>64940.34429047448</v>
       </c>
       <c r="L5" t="n">
-        <v>64940.3442904745</v>
+        <v>64940.34429047449</v>
       </c>
       <c r="M5" t="n">
-        <v>55512.11660807205</v>
+        <v>55512.11660807204</v>
       </c>
       <c r="N5" t="n">
         <v>55512.11660807206</v>
@@ -26509,7 +26509,7 @@
         <v>55512.11660807205</v>
       </c>
       <c r="P5" t="n">
-        <v>55512.11660807205</v>
+        <v>55512.11660807204</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262616.5878797523</v>
+        <v>262612.951575266</v>
       </c>
       <c r="C6" t="n">
-        <v>262616.5878797523</v>
+        <v>262612.9515752658</v>
       </c>
       <c r="D6" t="n">
-        <v>262616.5878797529</v>
+        <v>262612.951575266</v>
       </c>
       <c r="E6" t="n">
-        <v>-71606.5864595263</v>
+        <v>-71850.85056556264</v>
       </c>
       <c r="F6" t="n">
-        <v>291221.9891213361</v>
+        <v>290977.7250152993</v>
       </c>
       <c r="G6" t="n">
-        <v>250277.3072284473</v>
+        <v>250278.8862783468</v>
       </c>
       <c r="H6" t="n">
-        <v>319061.4299085924</v>
+        <v>319063.0089584917</v>
       </c>
       <c r="I6" t="n">
-        <v>319061.4299085921</v>
+        <v>319063.0089584918</v>
       </c>
       <c r="J6" t="n">
-        <v>216836.5411252565</v>
+        <v>216838.3405274891</v>
       </c>
       <c r="K6" t="n">
-        <v>312757.2557901868</v>
+        <v>312759.0551924185</v>
       </c>
       <c r="L6" t="n">
-        <v>243973.1331100421</v>
+        <v>243974.9325122738</v>
       </c>
       <c r="M6" t="n">
-        <v>191230.7995239068</v>
+        <v>191232.5236657559</v>
       </c>
       <c r="N6" t="n">
-        <v>320843.500204096</v>
+        <v>320845.2243459447</v>
       </c>
       <c r="O6" t="n">
-        <v>308213.1120062374</v>
+        <v>308214.8361480863</v>
       </c>
       <c r="P6" t="n">
-        <v>320843.5002040961</v>
+        <v>320845.2243459445</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>101.7681385975039</v>
       </c>
       <c r="F2" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G2" t="n">
         <v>187.7482919476847</v>
       </c>
       <c r="H2" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="I2" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="J2" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="K2" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="N2" t="n">
         <v>166.0066746736183</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="P2" t="n">
         <v>166.0066746736182</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="F3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="G3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="H3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="I3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="J3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="K3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="L3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="M3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="N3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="O3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="P3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
     </row>
     <row r="4">
@@ -26808,19 +26808,19 @@
         <v>557.7799487654788</v>
       </c>
       <c r="I4" t="n">
-        <v>557.7799487654786</v>
+        <v>557.7799487654788</v>
       </c>
       <c r="J4" t="n">
-        <v>876.1145043718417</v>
+        <v>876.1145043718416</v>
       </c>
       <c r="K4" t="n">
-        <v>876.1145043718417</v>
+        <v>876.1145043718413</v>
       </c>
       <c r="L4" t="n">
-        <v>876.1145043718417</v>
+        <v>876.1145043718413</v>
       </c>
       <c r="M4" t="n">
-        <v>632.2214587832674</v>
+        <v>632.2214587832673</v>
       </c>
       <c r="N4" t="n">
         <v>632.2214587832675</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.98015335018071</v>
+        <v>85.98015335018076</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732319</v>
+        <v>15.78798524732318</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018073</v>
+        <v>85.9801533501808</v>
       </c>
       <c r="M2" t="n">
-        <v>64.23853607611444</v>
+        <v>64.2385360761143</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732316</v>
+        <v>15.78798524732315</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063631</v>
+        <v>318.3345556063628</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.8869031769045</v>
+        <v>313.8869031769048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018071</v>
+        <v>85.98015335018076</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732319</v>
+        <v>15.78798524732318</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S11" t="n">
         <v>101.7681385975039</v>
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>101.7681385975039</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.09140601927351</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,10 +28229,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>89.92346545441509</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>28.24673287618506</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.768138597504</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>85.35633488202632</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F15" t="n">
-        <v>101.768138597504</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>57.10960200584132</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>28.24673287618464</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975049</v>
       </c>
       <c r="M16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N16" t="n">
-        <v>101.768138597503</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S17" t="n">
         <v>172.2582621877896</v>
@@ -28643,16 +28643,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9.988022163712373</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>101.1443201293496</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.7482919476847</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28764,22 +28764,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817544</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R19" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S19" t="n">
-        <v>187.7482919476847</v>
+        <v>34.32836029747571</v>
       </c>
       <c r="T19" t="n">
         <v>187.7482919476847</v>
       </c>
       <c r="U19" t="n">
-        <v>184.81728439377</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="W19" t="n">
         <v>187.7482919476847</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="C20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="D20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="E20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="G20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="H20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="I20" t="n">
         <v>148.9287648520408</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S20" t="n">
         <v>172.2582621877896</v>
       </c>
       <c r="T20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="U20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="V20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="W20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="X20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9727123385639</v>
       </c>
       <c r="H22" t="n">
         <v>155.4864973730212</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.56148380817544</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R22" t="n">
-        <v>136.4331932014877</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="U22" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="V22" t="n">
-        <v>165.0939549288699</v>
+        <v>170.7615534989635</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="X22" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="C23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="D23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="E23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="G23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="H23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="I23" t="n">
         <v>148.9287648520408</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S23" t="n">
         <v>172.2582621877896</v>
       </c>
       <c r="T23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="U23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="V23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="W23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="X23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="Y23" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.467947646761161</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>46.13270098039017</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I24" t="n">
-        <v>57.10960200584132</v>
+        <v>57.10960200584133</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.09140601927351</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.5589030715301</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>134.5544357917938</v>
       </c>
       <c r="E25" t="n">
-        <v>97.29506794040324</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.56148380817544</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="T25" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="V25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="X25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.7482919476846</v>
+        <v>187.7482919476847</v>
       </c>
     </row>
     <row r="26">
@@ -29305,22 +29305,22 @@
         <v>101.7681385975039</v>
       </c>
       <c r="M26" t="n">
+        <v>72.63127504991371</v>
+      </c>
+      <c r="N26" t="n">
         <v>101.7681385975039</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="P26" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="R26" t="n">
-        <v>72.63127504991428</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S26" t="n">
         <v>101.7681385975039</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K29" t="n">
-        <v>72.631275049914</v>
+        <v>19.00661620155427</v>
       </c>
       <c r="L29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R29" t="n">
-        <v>101.7681385975038</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.7681385975059</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.7681385975038</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M32" t="n">
-        <v>72.63127504991417</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991206</v>
       </c>
       <c r="R32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975024</v>
       </c>
       <c r="M34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7681385975057</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="I35" t="n">
         <v>148.9287648520408</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0066746736184</v>
+        <v>161.628759825989</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H37" t="n">
         <v>155.4864973730212</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.56148380817544</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>136.4331932014877</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T37" t="n">
-        <v>132.0552783538577</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0066746736184</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0066746736184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S38" t="n">
         <v>166.0066746736183</v>
@@ -30384,7 +30384,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="D40" t="n">
-        <v>147.1632593928857</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.56148380817544</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.4331932014877</v>
@@ -30432,7 +30432,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0066746736183</v>
+        <v>12.18356896054627</v>
       </c>
       <c r="U40" t="n">
         <v>166.0066746736183</v>
@@ -30441,7 +30441,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X40" t="n">
         <v>166.0066746736183</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="I41" t="n">
         <v>148.9287648520408</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="42">
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>146.1110092486654</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H43" t="n">
         <v>155.4864973730212</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.56148380817544</v>
+        <v>16.56148380817545</v>
       </c>
       <c r="R43" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0066746736182</v>
+        <v>161.6287598259892</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.62465884835797</v>
+        <v>53.62465884835799</v>
       </c>
       <c r="S44" t="n">
         <v>166.0066746736182</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.56148380817544</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>136.4331932014877</v>
@@ -30912,16 +30912,16 @@
         <v>166.0066746736182</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6287598259893</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W46" t="n">
         <v>166.0066746736182</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0066746736182</v>
+        <v>12.18356896054681</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H11" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I11" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J11" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K11" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M11" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N11" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O11" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P11" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R11" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S11" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T11" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H12" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I12" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K12" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L12" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M12" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N12" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O12" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P12" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R12" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S12" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T12" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H13" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I13" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J13" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K13" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L13" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M13" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N13" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O13" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P13" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R13" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S13" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T13" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H14" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J14" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K14" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M14" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N14" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O14" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P14" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R14" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S14" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T14" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H15" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I15" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K15" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L15" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M15" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N15" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O15" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P15" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R15" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S15" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T15" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H16" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I16" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J16" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K16" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L16" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M16" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N16" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O16" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P16" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S16" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T16" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H17" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I17" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J17" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K17" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M17" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N17" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O17" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R17" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S17" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T17" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H18" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I18" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K18" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L18" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M18" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N18" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O18" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P18" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R18" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S18" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T18" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H19" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I19" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J19" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K19" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L19" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M19" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N19" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O19" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P19" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S19" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T19" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H20" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I20" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J20" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K20" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L20" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M20" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N20" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O20" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P20" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R20" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S20" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T20" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H21" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I21" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J21" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K21" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L21" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M21" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N21" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O21" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P21" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R21" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S21" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T21" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H22" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I22" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J22" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K22" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L22" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M22" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N22" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O22" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P22" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S22" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T22" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H23" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I23" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J23" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K23" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M23" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N23" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O23" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P23" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R23" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S23" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T23" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H24" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I24" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J24" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K24" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L24" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M24" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N24" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O24" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P24" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R24" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S24" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T24" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H25" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I25" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J25" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K25" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L25" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M25" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N25" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O25" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P25" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S25" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T25" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H26" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I26" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J26" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K26" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L26" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M26" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N26" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O26" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P26" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R26" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S26" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T26" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H27" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I27" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J27" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K27" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L27" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M27" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N27" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O27" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P27" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R27" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S27" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T27" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H28" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I28" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J28" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K28" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L28" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M28" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N28" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O28" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P28" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R28" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S28" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T28" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H29" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I29" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J29" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K29" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M29" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O29" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P29" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R29" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S29" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T29" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H30" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I30" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J30" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K30" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L30" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M30" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N30" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O30" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P30" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R30" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S30" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T30" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H31" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I31" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J31" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K31" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L31" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M31" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N31" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O31" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P31" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R31" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S31" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T31" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H32" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I32" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J32" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K32" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M32" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N32" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O32" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P32" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R32" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S32" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T32" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H33" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I33" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J33" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K33" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L33" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M33" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N33" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O33" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P33" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R33" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S33" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T33" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H34" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I34" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J34" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K34" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L34" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M34" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N34" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O34" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P34" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R34" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S34" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T34" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H35" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I35" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J35" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K35" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L35" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M35" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N35" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O35" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P35" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R35" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S35" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T35" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H36" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I36" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J36" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K36" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L36" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M36" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N36" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O36" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P36" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R36" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S36" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T36" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H37" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I37" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J37" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K37" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M37" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N37" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O37" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P37" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R37" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S37" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T37" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H38" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I38" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J38" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K38" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L38" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M38" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N38" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O38" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P38" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R38" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S38" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T38" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H39" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I39" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J39" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K39" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L39" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M39" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N39" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O39" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P39" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R39" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S39" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T39" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H40" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I40" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J40" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K40" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L40" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M40" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N40" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O40" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P40" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R40" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S40" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T40" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H41" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I41" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J41" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K41" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M41" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N41" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O41" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P41" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R41" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S41" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T41" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H42" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I42" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J42" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K42" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L42" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M42" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N42" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O42" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P42" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R42" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S42" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T42" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H43" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I43" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J43" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K43" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L43" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M43" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N43" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O43" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P43" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R43" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S43" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T43" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5748073912522187</v>
+        <v>0.5748073912522185</v>
       </c>
       <c r="H44" t="n">
-        <v>5.886746195661786</v>
+        <v>5.886746195661783</v>
       </c>
       <c r="I44" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J44" t="n">
-        <v>48.78605882329304</v>
+        <v>48.78605882329302</v>
       </c>
       <c r="K44" t="n">
-        <v>73.11765569499947</v>
+        <v>73.11765569499944</v>
       </c>
       <c r="L44" t="n">
-        <v>90.70891739503458</v>
+        <v>90.70891739503453</v>
       </c>
       <c r="M44" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N44" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O44" t="n">
-        <v>96.84857884284733</v>
+        <v>96.84857884284729</v>
       </c>
       <c r="P44" t="n">
-        <v>82.65802137130817</v>
+        <v>82.65802137130814</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.07273167208807</v>
+        <v>62.07273167208805</v>
       </c>
       <c r="R44" t="n">
-        <v>36.10724479074721</v>
+        <v>36.1072447907472</v>
       </c>
       <c r="S44" t="n">
-        <v>13.09842342815995</v>
+        <v>13.09842342815994</v>
       </c>
       <c r="T44" t="n">
-        <v>2.516219355206589</v>
+        <v>2.516219355206587</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04598459130017749</v>
+        <v>0.04598459130017746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761282</v>
       </c>
       <c r="H45" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961555</v>
       </c>
       <c r="I45" t="n">
         <v>10.58886045099828</v>
       </c>
       <c r="J45" t="n">
-        <v>29.05664241719159</v>
+        <v>29.05664241719158</v>
       </c>
       <c r="K45" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489217</v>
       </c>
       <c r="L45" t="n">
-        <v>66.77726581231464</v>
+        <v>66.77726581231461</v>
       </c>
       <c r="M45" t="n">
-        <v>77.92591952282427</v>
+        <v>77.92591952282423</v>
       </c>
       <c r="N45" t="n">
-        <v>79.98838673678306</v>
+        <v>79.98838673678303</v>
       </c>
       <c r="O45" t="n">
-        <v>73.17374686436989</v>
+        <v>73.17374686436986</v>
       </c>
       <c r="P45" t="n">
-        <v>58.72838297013543</v>
+        <v>58.72838297013541</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.25836873450369</v>
+        <v>39.25836873450367</v>
       </c>
       <c r="R45" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S45" t="n">
-        <v>5.71258904585703</v>
+        <v>5.712589045857027</v>
       </c>
       <c r="T45" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2578388072645712</v>
+        <v>0.2578388072645711</v>
       </c>
       <c r="H46" t="n">
-        <v>2.292421395497735</v>
+        <v>2.292421395497734</v>
       </c>
       <c r="I46" t="n">
-        <v>7.753916131192744</v>
+        <v>7.75391613119274</v>
       </c>
       <c r="J46" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K46" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582925</v>
       </c>
       <c r="L46" t="n">
-        <v>38.33359867277089</v>
+        <v>38.33359867277088</v>
       </c>
       <c r="M46" t="n">
-        <v>40.41740503330001</v>
+        <v>40.41740503329999</v>
       </c>
       <c r="N46" t="n">
-        <v>39.45636947895027</v>
+        <v>39.45636947895026</v>
       </c>
       <c r="O46" t="n">
-        <v>36.44434341226868</v>
+        <v>36.44434341226867</v>
       </c>
       <c r="P46" t="n">
-        <v>31.1844317440714</v>
+        <v>31.18443174407139</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R46" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S46" t="n">
-        <v>4.493427213874389</v>
+        <v>4.493427213874387</v>
       </c>
       <c r="T46" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>121.5118611190563</v>
       </c>
       <c r="K11" t="n">
-        <v>315.6836880634669</v>
+        <v>228.6993384163261</v>
       </c>
       <c r="L11" t="n">
-        <v>70.47449685983293</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>498.1424273827394</v>
@@ -35422,13 +35422,13 @@
         <v>484.7172074029608</v>
       </c>
       <c r="O11" t="n">
-        <v>404.9340177042958</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P11" t="n">
         <v>313.1195329430791</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>157.4588465069739</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>89.91941669305638</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>202.9338599378431</v>
       </c>
       <c r="L12" t="n">
         <v>436.2942811356638</v>
@@ -35501,10 +35501,10 @@
         <v>557.7799487654788</v>
       </c>
       <c r="O12" t="n">
-        <v>469.3353133130071</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>97.47432280274653</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114009</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K13" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L13" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M13" t="n">
         <v>261.3709033556541</v>
@@ -35586,7 +35586,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932847</v>
+        <v>85.20665478932845</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>315.6836880634669</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>442.1082841475055</v>
       </c>
       <c r="M14" t="n">
-        <v>411.1580777355984</v>
+        <v>498.1424273827394</v>
       </c>
       <c r="N14" t="n">
-        <v>484.7172074029608</v>
+        <v>113.0834201152885</v>
       </c>
       <c r="O14" t="n">
-        <v>404.9340177042958</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P14" t="n">
         <v>313.1195329430791</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.4588465069739</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>89.91941669305638</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2942811356638</v>
+        <v>247.578056265186</v>
       </c>
       <c r="M15" t="n">
         <v>557.7799487654788</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7799487654788</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>469.3353133130071</v>
       </c>
       <c r="P15" t="n">
-        <v>97.47432280274653</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.54067607114016</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L16" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957904</v>
       </c>
       <c r="M16" t="n">
-        <v>261.3709033556542</v>
+        <v>261.3709033556541</v>
       </c>
       <c r="N16" t="n">
-        <v>260.8430350962516</v>
+        <v>260.8430350962525</v>
       </c>
       <c r="O16" t="n">
-        <v>237.6707107932976</v>
+        <v>237.6707107932975</v>
       </c>
       <c r="P16" t="n">
-        <v>196.5570993598964</v>
+        <v>196.5570993598963</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932854</v>
+        <v>85.20665478932845</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>121.5118611190563</v>
       </c>
       <c r="K17" t="n">
-        <v>228.6993384163259</v>
+        <v>315.6836880634669</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,10 +35893,10 @@
         <v>498.1424273827394</v>
       </c>
       <c r="N17" t="n">
-        <v>484.7172074029608</v>
+        <v>397.7328577558201</v>
       </c>
       <c r="O17" t="n">
-        <v>404.9340177042958</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P17" t="n">
         <v>313.1195329430791</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.91941669305638</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L18" t="n">
         <v>436.2942811356638</v>
@@ -35972,7 +35972,7 @@
         <v>557.7799487654788</v>
       </c>
       <c r="N18" t="n">
-        <v>182.674260737156</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>469.3353133130071</v>
@@ -35981,7 +35981,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.623651346215</v>
+        <v>9.907426475736962</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L19" t="n">
         <v>139.9569111982855</v>
@@ -36057,7 +36057,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P19" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36133,13 +36133,13 @@
         <v>484.7172074029608</v>
       </c>
       <c r="O20" t="n">
-        <v>191.5250719731164</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P20" t="n">
         <v>313.1195329430791</v>
       </c>
       <c r="Q20" t="n">
-        <v>157.4588465069739</v>
+        <v>65.56176189485105</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>89.91941669305638</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2942811356638</v>
+        <v>247.578056265186</v>
       </c>
       <c r="M21" t="n">
         <v>557.7799487654788</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7799487654788</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>368.1859847695385</v>
+        <v>469.3353133130071</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q21" t="n">
         <v>198.623651346215</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L22" t="n">
         <v>139.9569111982855</v>
@@ -36294,7 +36294,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P22" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>121.5118611190563</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>99.71058721189991</v>
       </c>
       <c r="L23" t="n">
         <v>442.1082841475055</v>
       </c>
       <c r="M23" t="n">
-        <v>406.2453427706152</v>
+        <v>498.1424273827394</v>
       </c>
       <c r="N23" t="n">
         <v>484.7172074029608</v>
       </c>
       <c r="O23" t="n">
-        <v>404.9340177042958</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P23" t="n">
-        <v>313.1195329430791</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>157.4588465069739</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>281.4710689145777</v>
+        <v>259.8122444535562</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7799487654786</v>
+        <v>557.7799487654788</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7799487654786</v>
+        <v>557.7799487654788</v>
       </c>
       <c r="O24" t="n">
-        <v>447.6764888519851</v>
+        <v>469.3353133130071</v>
       </c>
       <c r="P24" t="n">
         <v>363.8757761779104</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L25" t="n">
         <v>139.9569111982855</v>
@@ -36531,7 +36531,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P25" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.2799997165603</v>
+        <v>223.2799997165602</v>
       </c>
       <c r="K26" t="n">
         <v>417.4518266609708</v>
@@ -36601,22 +36601,22 @@
         <v>543.8764227450094</v>
       </c>
       <c r="M26" t="n">
-        <v>599.9105659802433</v>
+        <v>570.7737024326531</v>
       </c>
       <c r="N26" t="n">
-        <v>484.7172074029608</v>
+        <v>586.4853460004647</v>
       </c>
       <c r="O26" t="n">
         <v>506.7021563017997</v>
       </c>
       <c r="P26" t="n">
-        <v>414.887671540583</v>
+        <v>313.1195329430791</v>
       </c>
       <c r="Q26" t="n">
-        <v>259.2269851044779</v>
+        <v>259.2269851044778</v>
       </c>
       <c r="R26" t="n">
-        <v>19.00661620155631</v>
+        <v>48.14347974914595</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.91941669305638</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L27" t="n">
         <v>436.2942811356638</v>
       </c>
       <c r="M27" t="n">
-        <v>348.8747627865425</v>
+        <v>157.3231105650212</v>
       </c>
       <c r="N27" t="n">
         <v>596.4183323156942</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.5406760711401</v>
+        <v>60.54067607114011</v>
       </c>
       <c r="K28" t="n">
         <v>165.6679440078215</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2799997165602</v>
+        <v>223.2799997165603</v>
       </c>
       <c r="K29" t="n">
-        <v>388.3149631133809</v>
+        <v>334.6903042650212</v>
       </c>
       <c r="L29" t="n">
         <v>543.8764227450094</v>
       </c>
       <c r="M29" t="n">
-        <v>599.9105659802432</v>
+        <v>599.9105659802433</v>
       </c>
       <c r="N29" t="n">
-        <v>484.7172074029608</v>
+        <v>586.4853460004648</v>
       </c>
       <c r="O29" t="n">
-        <v>506.7021563017996</v>
+        <v>506.7021563017997</v>
       </c>
       <c r="P29" t="n">
         <v>414.887671540583</v>
       </c>
       <c r="Q29" t="n">
-        <v>259.2269851044778</v>
+        <v>259.2269851044779</v>
       </c>
       <c r="R29" t="n">
-        <v>48.14347974914588</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25.7587918645007</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>436.2942811356638</v>
       </c>
       <c r="M30" t="n">
-        <v>567.8585998361843</v>
+        <v>567.8585998361842</v>
       </c>
       <c r="N30" t="n">
-        <v>596.4183323156942</v>
+        <v>467.3539119591091</v>
       </c>
       <c r="O30" t="n">
         <v>469.3353133130071</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.54067607114003</v>
+        <v>60.54067607114014</v>
       </c>
       <c r="K31" t="n">
-        <v>165.6679440078214</v>
+        <v>165.6679440078215</v>
       </c>
       <c r="L31" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M31" t="n">
         <v>261.3709033556541</v>
       </c>
       <c r="N31" t="n">
-        <v>260.8430350962524</v>
+        <v>260.8430350962526</v>
       </c>
       <c r="O31" t="n">
-        <v>237.6707107932975</v>
+        <v>237.6707107932976</v>
       </c>
       <c r="P31" t="n">
-        <v>196.5570993598963</v>
+        <v>196.5570993598964</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.20665478933041</v>
+        <v>85.20665478932851</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2799997165602</v>
+        <v>223.2799997165603</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4518266609708</v>
+        <v>417.4518266609709</v>
       </c>
       <c r="L32" t="n">
         <v>543.8764227450094</v>
       </c>
       <c r="M32" t="n">
-        <v>570.7737024326535</v>
+        <v>498.1424273827394</v>
       </c>
       <c r="N32" t="n">
-        <v>586.4853460004647</v>
+        <v>586.4853460004648</v>
       </c>
       <c r="O32" t="n">
-        <v>506.7021563017996</v>
+        <v>506.7021563017997</v>
       </c>
       <c r="P32" t="n">
-        <v>313.1195329430791</v>
+        <v>414.887671540583</v>
       </c>
       <c r="Q32" t="n">
-        <v>259.2269851044778</v>
+        <v>230.090121556886</v>
       </c>
       <c r="R32" t="n">
-        <v>48.14347974914589</v>
+        <v>48.14347974914602</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.91941669305638</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>281.4710689145777</v>
@@ -37154,19 +37154,19 @@
         <v>436.2942811356638</v>
       </c>
       <c r="M33" t="n">
-        <v>567.8585998361843</v>
+        <v>567.8585998361842</v>
       </c>
       <c r="N33" t="n">
-        <v>95.96342635147468</v>
+        <v>596.4183323156942</v>
       </c>
       <c r="O33" t="n">
-        <v>469.3353133130071</v>
+        <v>257.423475388059</v>
       </c>
       <c r="P33" t="n">
         <v>363.8757761779104</v>
       </c>
       <c r="Q33" t="n">
-        <v>198.623651346215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.54067607114005</v>
+        <v>60.54067607114018</v>
       </c>
       <c r="K34" t="n">
-        <v>165.6679440078214</v>
+        <v>165.6679440078215</v>
       </c>
       <c r="L34" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957879</v>
       </c>
       <c r="M34" t="n">
-        <v>261.3709033556541</v>
+        <v>261.3709033556542</v>
       </c>
       <c r="N34" t="n">
-        <v>260.8430350962525</v>
+        <v>260.8430350962526</v>
       </c>
       <c r="O34" t="n">
-        <v>237.6707107932975</v>
+        <v>237.6707107932976</v>
       </c>
       <c r="P34" t="n">
-        <v>196.5570993598981</v>
+        <v>196.5570993598964</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.20665478932843</v>
+        <v>85.20665478932855</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>315.6836880634669</v>
       </c>
       <c r="L35" t="n">
-        <v>207.7739526455173</v>
+        <v>442.1082841475055</v>
       </c>
       <c r="M35" t="n">
         <v>498.1424273827394</v>
@@ -37318,7 +37318,7 @@
         <v>484.7172074029608</v>
       </c>
       <c r="O35" t="n">
-        <v>404.9340177042958</v>
+        <v>292.1115473213634</v>
       </c>
       <c r="P35" t="n">
         <v>313.1195329430791</v>
@@ -37388,10 +37388,10 @@
         <v>281.4710689145777</v>
       </c>
       <c r="L36" t="n">
-        <v>436.2942811356638</v>
+        <v>299.7151513493546</v>
       </c>
       <c r="M36" t="n">
-        <v>67.40369387196453</v>
+        <v>567.8585998361842</v>
       </c>
       <c r="N36" t="n">
         <v>596.4183323156942</v>
@@ -37400,7 +37400,7 @@
         <v>469.3353133130071</v>
       </c>
       <c r="P36" t="n">
-        <v>363.8757761779104</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>198.623651346215</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L37" t="n">
         <v>139.9569111982855</v>
@@ -37479,7 +37479,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P37" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>315.6836880634669</v>
@@ -37555,10 +37555,10 @@
         <v>484.7172074029608</v>
       </c>
       <c r="O38" t="n">
-        <v>404.9340177042958</v>
+        <v>292.1115473213643</v>
       </c>
       <c r="P38" t="n">
-        <v>78.78520144109102</v>
+        <v>313.1195329430791</v>
       </c>
       <c r="Q38" t="n">
         <v>157.4588465069739</v>
@@ -37625,13 +37625,13 @@
         <v>281.4710689145777</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>436.2942811356638</v>
       </c>
       <c r="M39" t="n">
-        <v>503.6979750076288</v>
+        <v>567.8585998361842</v>
       </c>
       <c r="N39" t="n">
-        <v>596.4183323156942</v>
+        <v>95.96342635147515</v>
       </c>
       <c r="O39" t="n">
         <v>469.3353133130071</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L40" t="n">
         <v>139.9569111982855</v>
@@ -37716,7 +37716,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P40" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>121.5118611190563</v>
       </c>
       <c r="K41" t="n">
-        <v>81.34935656147915</v>
+        <v>81.34935656147921</v>
       </c>
       <c r="L41" t="n">
         <v>442.1082841475055</v>
@@ -37792,7 +37792,7 @@
         <v>484.7172074029608</v>
       </c>
       <c r="O41" t="n">
-        <v>404.9340177042958</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P41" t="n">
         <v>313.1195329430791</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>89.91941669305638</v>
       </c>
       <c r="K42" t="n">
-        <v>234.8113558213248</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>436.2942811356638</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8585998361843</v>
+        <v>567.8585998361842</v>
       </c>
       <c r="N42" t="n">
         <v>596.4183323156942</v>
       </c>
       <c r="O42" t="n">
-        <v>469.3353133130071</v>
+        <v>250.3514762633657</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q42" t="n">
         <v>198.623651346215</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L43" t="n">
         <v>139.9569111982855</v>
@@ -37953,7 +37953,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P43" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>498.1424273827394</v>
       </c>
       <c r="N44" t="n">
-        <v>484.7172074029608</v>
+        <v>250.3828759009731</v>
       </c>
       <c r="O44" t="n">
-        <v>170.599686202308</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P44" t="n">
         <v>313.1195329430791</v>
@@ -38099,16 +38099,16 @@
         <v>281.4710689145777</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>436.2942811356638</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8585998361843</v>
+        <v>67.40369387196453</v>
       </c>
       <c r="N45" t="n">
         <v>596.4183323156942</v>
       </c>
       <c r="O45" t="n">
-        <v>405.1746884844513</v>
+        <v>469.3353133130071</v>
       </c>
       <c r="P45" t="n">
         <v>363.8757761779104</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>63.89980541031756</v>
+        <v>63.89980541031755</v>
       </c>
       <c r="L46" t="n">
         <v>139.9569111982855</v>
@@ -38190,7 +38190,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P46" t="n">
-        <v>94.78896076239241</v>
+        <v>94.78896076239239</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
